--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_0_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_0_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>232228.9420416889</v>
+        <v>230263.4986874842</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>607918.8390673585</v>
+        <v>449589.9946393074</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.647099858573426</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="G2" t="n">
-        <v>15.21022140383137</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>4.097100052852153</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>95.61266302004007</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>60.93509242626513</v>
       </c>
       <c r="Y3" t="n">
-        <v>114.699901090746</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>13.40110646040575</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
     </row>
     <row r="5">
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>59.00979738223852</v>
       </c>
       <c r="G5" t="n">
-        <v>382.2812817067457</v>
+        <v>382.2812817067461</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3050092054643</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>150.0697111524749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.85973112207191</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.6101510330648</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.03761757124306</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>81.73019234070193</v>
       </c>
       <c r="S6" t="n">
-        <v>166.6340717775285</v>
+        <v>166.6340717775284</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.07918993011053</v>
+        <v>1.590414065145467</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.575876414615064</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>226.971868761563</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>192.4564150008914</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>253.9085398096167</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>132.997194893274</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>44.1757956264126</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3734930916121</v>
+        <v>125.3734930916124</v>
       </c>
       <c r="T11" t="n">
         <v>198.6271876863864</v>
@@ -1528,13 +1528,13 @@
         <v>169.4345470513638</v>
       </c>
       <c r="C13" t="n">
-        <v>156.8493879680543</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>138.2180398876389</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>136.0365295159957</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>101.6915092090627</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.0633886642565</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>241.7402101932545</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.1255652060175</v>
       </c>
       <c r="X13" t="n">
         <v>215.3122222584637</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.21758625153876</v>
+        <v>199.5678578724038</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>296.1574440492783</v>
       </c>
       <c r="I14" t="n">
-        <v>76.15360292176766</v>
+        <v>76.15360292176767</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>169.4345470513639</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>136.0365295159957</v>
       </c>
       <c r="F16" t="n">
-        <v>135.0236148923578</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.0100359697638</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>101.6915092090627</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>188.4909732587351</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>60.22060958815058</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>241.7402101932546</v>
       </c>
       <c r="W16" t="n">
-        <v>276.1255652060176</v>
+        <v>216.4321545912798</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>215.3122222584637</v>
       </c>
       <c r="Y16" t="n">
         <v>208.1872202215214</v>
@@ -1862,7 +1862,7 @@
         <v>296.1574440492782</v>
       </c>
       <c r="I17" t="n">
-        <v>76.1536029217676</v>
+        <v>76.15360292176763</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>169.4345470513638</v>
       </c>
       <c r="C19" t="n">
-        <v>156.8493879680543</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D19" t="n">
-        <v>138.2180398876389</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>136.0365295159957</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>211.3873581368306</v>
+        <v>177.5124809542924</v>
       </c>
       <c r="U19" t="n">
-        <v>205.4012051718129</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>241.7402101932545</v>
       </c>
       <c r="W19" t="n">
-        <v>276.1255652060175</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>296.1574440492782</v>
       </c>
       <c r="I20" t="n">
-        <v>76.1536029217676</v>
+        <v>76.15360292176767</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>359.3336675478956</v>
       </c>
       <c r="Y20" t="n">
-        <v>375.8405055254801</v>
+        <v>375.84050552548</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>135.6236379817277</v>
       </c>
       <c r="H21" t="n">
-        <v>95.62503214164755</v>
+        <v>95.62503214164757</v>
       </c>
       <c r="I21" t="n">
-        <v>30.18149436614537</v>
+        <v>30.18149436614539</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>169.4345470513638</v>
       </c>
       <c r="C22" t="n">
-        <v>156.8493879680543</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D22" t="n">
         <v>138.2180398876389</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>9.392077141082467</v>
+        <v>54.98518321805332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>102.0633886642566</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V22" t="n">
         <v>241.7402101932545</v>
@@ -2302,10 +2302,10 @@
         <v>276.1255652060175</v>
       </c>
       <c r="X22" t="n">
-        <v>215.3122222584637</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.1872202215213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,16 +2318,16 @@
         <v>372.3364085329071</v>
       </c>
       <c r="C23" t="n">
-        <v>354.875458640434</v>
+        <v>354.8754586404341</v>
       </c>
       <c r="D23" t="n">
-        <v>344.2856084901094</v>
+        <v>344.2856084901095</v>
       </c>
       <c r="E23" t="n">
         <v>371.5329369416883</v>
       </c>
       <c r="F23" t="n">
-        <v>396.4786126111379</v>
+        <v>396.478612611138</v>
       </c>
       <c r="G23" t="n">
         <v>401.690860353226</v>
@@ -2336,7 +2336,7 @@
         <v>296.1574440492782</v>
       </c>
       <c r="I23" t="n">
-        <v>76.15360292176757</v>
+        <v>76.15360292176763</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,19 +2369,19 @@
         <v>125.3734930916124</v>
       </c>
       <c r="T23" t="n">
-        <v>198.6271876863863</v>
+        <v>198.6271876863864</v>
       </c>
       <c r="U23" t="n">
-        <v>240.6910642547561</v>
+        <v>240.6910642547559</v>
       </c>
       <c r="V23" t="n">
-        <v>317.3548253395628</v>
+        <v>317.3548253395614</v>
       </c>
       <c r="W23" t="n">
-        <v>338.8435355868395</v>
+        <v>338.8435355868396</v>
       </c>
       <c r="X23" t="n">
-        <v>359.3336675478955</v>
+        <v>359.3336675478956</v>
       </c>
       <c r="Y23" t="n">
         <v>375.8405055254801</v>
@@ -2476,22 +2476,22 @@
         <v>169.4345470513638</v>
       </c>
       <c r="C25" t="n">
-        <v>156.8493879680543</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>138.2180398876389</v>
       </c>
       <c r="E25" t="n">
-        <v>53.33184930383166</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G25" t="n">
-        <v>156.1516572966161</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.0100359697637</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.0633886642565</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>188.490973258735</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V25" t="n">
         <v>241.7402101932545</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>89.96330197444796</v>
       </c>
       <c r="Y25" t="n">
         <v>208.1872202215213</v>
@@ -2555,16 +2555,16 @@
         <v>372.3364085329071</v>
       </c>
       <c r="C26" t="n">
-        <v>354.875458640434</v>
+        <v>354.8754586404341</v>
       </c>
       <c r="D26" t="n">
-        <v>344.2856084901094</v>
+        <v>344.2856084901095</v>
       </c>
       <c r="E26" t="n">
         <v>371.5329369416883</v>
       </c>
       <c r="F26" t="n">
-        <v>396.4786126111379</v>
+        <v>396.478612611138</v>
       </c>
       <c r="G26" t="n">
         <v>401.690860353226</v>
@@ -2573,7 +2573,7 @@
         <v>296.1574440492782</v>
       </c>
       <c r="I26" t="n">
-        <v>76.15360292176757</v>
+        <v>76.1536029217676</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>125.3734930916124</v>
       </c>
       <c r="T26" t="n">
-        <v>198.6271876863863</v>
+        <v>198.6271876863864</v>
       </c>
       <c r="U26" t="n">
-        <v>240.6910642547561</v>
+        <v>240.6910642547562</v>
       </c>
       <c r="V26" t="n">
         <v>317.3548253395614</v>
       </c>
       <c r="W26" t="n">
-        <v>338.8435355868395</v>
+        <v>338.8435355868396</v>
       </c>
       <c r="X26" t="n">
-        <v>359.3336675478955</v>
+        <v>359.3336675478956</v>
       </c>
       <c r="Y26" t="n">
         <v>375.8405055254801</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>169.4345470513638</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>156.8493879680543</v>
       </c>
       <c r="D28" t="n">
-        <v>138.2180398876388</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>136.0365295159957</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>135.0236148923577</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>156.1516572966161</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>139.0100359697637</v>
+        <v>139.0100359697638</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>188.490973258735</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>8.882698526218377</v>
       </c>
       <c r="U28" t="n">
-        <v>275.8429477387572</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V28" t="n">
         <v>241.7402101932545</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>4.745261174278702</v>
+        <v>215.3122222584637</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>208.1872202215213</v>
       </c>
     </row>
     <row r="29">
@@ -2792,16 +2792,16 @@
         <v>372.3364085329071</v>
       </c>
       <c r="C29" t="n">
-        <v>354.875458640434</v>
+        <v>354.8754586404341</v>
       </c>
       <c r="D29" t="n">
-        <v>344.2856084901094</v>
+        <v>344.2856084901095</v>
       </c>
       <c r="E29" t="n">
         <v>371.5329369416883</v>
       </c>
       <c r="F29" t="n">
-        <v>396.4786126111379</v>
+        <v>396.478612611138</v>
       </c>
       <c r="G29" t="n">
         <v>401.690860353226</v>
@@ -2810,7 +2810,7 @@
         <v>296.1574440492782</v>
       </c>
       <c r="I29" t="n">
-        <v>76.15360292176754</v>
+        <v>76.1536029217676</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3734930916123</v>
+        <v>125.3734930916124</v>
       </c>
       <c r="T29" t="n">
-        <v>198.6271876863863</v>
+        <v>198.6271876863864</v>
       </c>
       <c r="U29" t="n">
-        <v>240.6910642547561</v>
+        <v>240.6910642547562</v>
       </c>
       <c r="V29" t="n">
-        <v>317.3548253395613</v>
+        <v>317.3548253395614</v>
       </c>
       <c r="W29" t="n">
-        <v>338.8435355868395</v>
+        <v>338.8435355868396</v>
       </c>
       <c r="X29" t="n">
-        <v>359.3336675478955</v>
+        <v>359.3336675478956</v>
       </c>
       <c r="Y29" t="n">
-        <v>375.84050552548</v>
+        <v>375.8405055254801</v>
       </c>
     </row>
     <row r="30">
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>6.359993135339085</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>136.0365295159957</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>140.1417092586116</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>139.0100359697638</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>101.6915092090627</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,22 +2998,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>188.490973258735</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>211.3873581368306</v>
       </c>
       <c r="U31" t="n">
-        <v>275.8429477387572</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V31" t="n">
-        <v>241.7402101932545</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.1255652060174</v>
+        <v>276.1255652060175</v>
       </c>
       <c r="X31" t="n">
-        <v>215.3122222584636</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>368.0586321885756</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>336.2329019998626</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>412.0882934837995</v>
@@ -3047,7 +3047,7 @@
         <v>306.5548771798517</v>
       </c>
       <c r="I32" t="n">
-        <v>86.55103605234109</v>
+        <v>71.8758265774367</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,13 +3083,13 @@
         <v>209.0246208169599</v>
       </c>
       <c r="U32" t="n">
-        <v>180.4453536434808</v>
+        <v>251.0884973853296</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>257.1091147282861</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>278.5978249755642</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,25 +3187,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C34" t="n">
-        <v>96.603677356779</v>
+        <v>96.60367735677903</v>
       </c>
       <c r="D34" t="n">
-        <v>77.9723292763646</v>
+        <v>77.97232927636355</v>
       </c>
       <c r="E34" t="n">
-        <v>75.79081890472034</v>
+        <v>75.79081890472037</v>
       </c>
       <c r="F34" t="n">
-        <v>74.77790428108241</v>
+        <v>74.77790428108244</v>
       </c>
       <c r="G34" t="n">
-        <v>95.90594668534075</v>
+        <v>95.90594668534078</v>
       </c>
       <c r="H34" t="n">
-        <v>78.76432535848843</v>
+        <v>78.76432535848846</v>
       </c>
       <c r="I34" t="n">
-        <v>41.44579859778734</v>
+        <v>41.44579859778736</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.81767805298121</v>
+        <v>41.81767805298124</v>
       </c>
       <c r="S34" t="n">
-        <v>128.2452626474597</v>
+        <v>128.2452626474598</v>
       </c>
       <c r="T34" t="n">
         <v>151.1416475255553</v>
@@ -3281,10 +3281,10 @@
         <v>412.0882934837995</v>
       </c>
       <c r="H35" t="n">
-        <v>306.5548771798517</v>
+        <v>235.9117334380029</v>
       </c>
       <c r="I35" t="n">
-        <v>86.55103605234108</v>
+        <v>86.55103605234109</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>65.12778248033705</v>
+        <v>135.7709262221859</v>
       </c>
       <c r="T35" t="n">
-        <v>209.0246208169599</v>
+        <v>138.3814770751111</v>
       </c>
       <c r="U35" t="n">
-        <v>180.4453536434808</v>
+        <v>251.0884973853296</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>334.5657592425089</v>
       </c>
       <c r="X35" t="n">
-        <v>355.0558912035643</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,25 +3424,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C37" t="n">
-        <v>96.60367735677902</v>
+        <v>96.60367735677903</v>
       </c>
       <c r="D37" t="n">
-        <v>77.97232927636354</v>
+        <v>77.97232927636355</v>
       </c>
       <c r="E37" t="n">
-        <v>75.79081890472035</v>
+        <v>75.79081890472037</v>
       </c>
       <c r="F37" t="n">
-        <v>74.77790428108243</v>
+        <v>74.77790428108244</v>
       </c>
       <c r="G37" t="n">
-        <v>95.90594668534077</v>
+        <v>95.90594668534078</v>
       </c>
       <c r="H37" t="n">
-        <v>78.76432535848845</v>
+        <v>78.76432535848846</v>
       </c>
       <c r="I37" t="n">
-        <v>41.44579859778734</v>
+        <v>41.44579859778736</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.81767805298122</v>
+        <v>41.81767805298124</v>
       </c>
       <c r="S37" t="n">
         <v>128.2452626474598</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>336.2329019998626</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>412.0882934837995</v>
@@ -3521,7 +3521,7 @@
         <v>306.5548771798517</v>
       </c>
       <c r="I38" t="n">
-        <v>86.55103605234108</v>
+        <v>86.55103605234109</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>135.7709262221859</v>
+        <v>65.12778248033712</v>
       </c>
       <c r="T38" t="n">
-        <v>194.3494113420555</v>
+        <v>138.3814770751111</v>
       </c>
       <c r="U38" t="n">
-        <v>180.4453536434808</v>
+        <v>251.0884973853296</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>313.0770489952304</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>368.058632188577</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>306.5548771798517</v>
       </c>
       <c r="I41" t="n">
-        <v>86.55103605234108</v>
+        <v>86.55103605234109</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>209.0246208169599</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0884973853296</v>
+        <v>236.413287910424</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3803,10 +3803,10 @@
         <v>278.5978249755642</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>299.0879569366202</v>
       </c>
       <c r="Y41" t="n">
-        <v>315.5947949142048</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3898,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C43" t="n">
-        <v>96.60367735677904</v>
+        <v>96.60367735677902</v>
       </c>
       <c r="D43" t="n">
-        <v>77.97232927636357</v>
+        <v>77.97232927636354</v>
       </c>
       <c r="E43" t="n">
-        <v>75.79081890472038</v>
+        <v>75.79081890472035</v>
       </c>
       <c r="F43" t="n">
-        <v>74.77790428108246</v>
+        <v>74.77790428108243</v>
       </c>
       <c r="G43" t="n">
-        <v>95.90594668534079</v>
+        <v>95.90594668534077</v>
       </c>
       <c r="H43" t="n">
-        <v>78.76432535848848</v>
+        <v>78.76432535848845</v>
       </c>
       <c r="I43" t="n">
-        <v>41.44579859778737</v>
+        <v>41.44579859778734</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.81767805298125</v>
+        <v>41.81767805298122</v>
       </c>
       <c r="S43" t="n">
         <v>128.2452626474598</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>312.0906979216318</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>340.0078321457776</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>341.4451497419507</v>
+        <v>412.0882934837995</v>
       </c>
       <c r="H44" t="n">
         <v>306.5548771798517</v>
       </c>
       <c r="I44" t="n">
-        <v>86.55103605234108</v>
+        <v>86.55103605234109</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,10 +4037,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>334.5657592425094</v>
+        <v>278.5978249755642</v>
       </c>
       <c r="X44" t="n">
-        <v>299.0879569366202</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1047.26399453538</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="C2" t="n">
-        <v>1047.26399453538</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="D2" t="n">
-        <v>1047.26399453538</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="E2" t="n">
-        <v>781.3629501397572</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="F2" t="n">
-        <v>515.4619057441345</v>
+        <v>291.098892013627</v>
       </c>
       <c r="G2" t="n">
-        <v>500.0980457402644</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="H2" t="n">
-        <v>234.1970013446415</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="I2" t="n">
         <v>25.19784761800419</v>
@@ -4352,28 +4352,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="U2" t="n">
-        <v>1052.968135806666</v>
+        <v>653.5783839042398</v>
       </c>
       <c r="V2" t="n">
-        <v>1052.968135806666</v>
+        <v>653.5783839042398</v>
       </c>
       <c r="W2" t="n">
-        <v>1052.968135806666</v>
+        <v>653.5783839042398</v>
       </c>
       <c r="X2" t="n">
-        <v>1052.968135806666</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="Y2" t="n">
-        <v>1052.968135806666</v>
+        <v>556.9999364092498</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>308.3986281359331</v>
+        <v>361.204544883074</v>
       </c>
       <c r="C3" t="n">
-        <v>133.9455988548061</v>
+        <v>361.204544883074</v>
       </c>
       <c r="D3" t="n">
-        <v>133.9455988548061</v>
+        <v>361.204544883074</v>
       </c>
       <c r="E3" t="n">
-        <v>133.9455988548061</v>
+        <v>361.204544883074</v>
       </c>
       <c r="F3" t="n">
-        <v>133.9455988548061</v>
+        <v>361.204544883074</v>
       </c>
       <c r="G3" t="n">
-        <v>133.9455988548061</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I3" t="n">
         <v>21.05936271613333</v>
@@ -4413,19 +4413,19 @@
         <v>146.4169227739707</v>
       </c>
       <c r="L3" t="n">
-        <v>146.4169227739707</v>
+        <v>376.3800286423199</v>
       </c>
       <c r="M3" t="n">
-        <v>407.0265363861207</v>
+        <v>540.3204860678362</v>
       </c>
       <c r="N3" t="n">
-        <v>524.903632156528</v>
+        <v>800.9300996799861</v>
       </c>
       <c r="O3" t="n">
-        <v>785.3166962490201</v>
+        <v>800.9300996799861</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271187</v>
+        <v>983.5735772933371</v>
       </c>
       <c r="Q3" t="n">
         <v>1052.968135806666</v>
@@ -4434,25 +4434,25 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S3" t="n">
-        <v>880.4795283993074</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T3" t="n">
-        <v>678.4944708143832</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U3" t="n">
-        <v>678.4944708143832</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V3" t="n">
-        <v>678.4944708143832</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W3" t="n">
-        <v>424.2571140861816</v>
+        <v>798.7307790784648</v>
       </c>
       <c r="X3" t="n">
-        <v>424.2571140861816</v>
+        <v>737.180180668096</v>
       </c>
       <c r="Y3" t="n">
-        <v>308.3986281359331</v>
+        <v>529.4198819031421</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.9724562985265</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C4" t="n">
-        <v>168.9724562985265</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D4" t="n">
-        <v>168.9724562985265</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E4" t="n">
         <v>21.05936271613333</v>
@@ -4528,10 +4528,10 @@
         <v>182.5089274706535</v>
       </c>
       <c r="X4" t="n">
-        <v>168.9724562985265</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Y4" t="n">
-        <v>168.9724562985265</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>792.6332290208475</v>
+        <v>845.2935842132995</v>
       </c>
       <c r="C5" t="n">
-        <v>423.6707120804358</v>
+        <v>476.3310672728878</v>
       </c>
       <c r="D5" t="n">
-        <v>423.6707120804358</v>
+        <v>476.3310672728878</v>
       </c>
       <c r="E5" t="n">
-        <v>423.6707120804358</v>
+        <v>476.3310672728878</v>
       </c>
       <c r="F5" t="n">
-        <v>416.7252113312323</v>
+        <v>416.7252113312327</v>
       </c>
       <c r="G5" t="n">
-        <v>30.58250253653966</v>
+        <v>30.58250253653969</v>
       </c>
       <c r="H5" t="n">
-        <v>30.58250253653966</v>
+        <v>30.58250253653969</v>
       </c>
       <c r="I5" t="n">
-        <v>30.58250253653966</v>
+        <v>30.58250253653969</v>
       </c>
       <c r="J5" t="n">
         <v>61.44130107382261</v>
       </c>
       <c r="K5" t="n">
-        <v>228.4354450105925</v>
+        <v>228.4354450105928</v>
       </c>
       <c r="L5" t="n">
-        <v>487.8830747386938</v>
+        <v>487.8830747386943</v>
       </c>
       <c r="M5" t="n">
-        <v>793.1750984905467</v>
+        <v>793.1750984905474</v>
       </c>
       <c r="N5" t="n">
-        <v>1088.775068813876</v>
+        <v>1088.775068813877</v>
       </c>
       <c r="O5" t="n">
-        <v>1322.714100731256</v>
+        <v>1322.714100731257</v>
       </c>
       <c r="P5" t="n">
-        <v>1484.701269194415</v>
+        <v>1484.701269194417</v>
       </c>
       <c r="Q5" t="n">
-        <v>1529.125126826983</v>
+        <v>1529.125126826984</v>
       </c>
       <c r="R5" t="n">
-        <v>1529.125126826983</v>
+        <v>1529.125126826984</v>
       </c>
       <c r="S5" t="n">
-        <v>1529.125126826983</v>
+        <v>1529.125126826984</v>
       </c>
       <c r="T5" t="n">
-        <v>1529.125126826983</v>
+        <v>1529.125126826984</v>
       </c>
       <c r="U5" t="n">
-        <v>1275.2816831851</v>
+        <v>1529.125126826984</v>
       </c>
       <c r="V5" t="n">
-        <v>944.2187958415292</v>
+        <v>1198.062239483414</v>
       </c>
       <c r="W5" t="n">
-        <v>944.2187958415292</v>
+        <v>845.2935842132995</v>
       </c>
       <c r="X5" t="n">
-        <v>944.2187958415292</v>
+        <v>845.2935842132995</v>
       </c>
       <c r="Y5" t="n">
-        <v>792.6332290208475</v>
+        <v>845.2935842132995</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>676.8523278069754</v>
+        <v>205.0355318176667</v>
       </c>
       <c r="C6" t="n">
-        <v>676.8523278069754</v>
+        <v>30.58250253653969</v>
       </c>
       <c r="D6" t="n">
-        <v>527.9179181457241</v>
+        <v>30.58250253653969</v>
       </c>
       <c r="E6" t="n">
-        <v>368.6804631402687</v>
+        <v>30.58250253653969</v>
       </c>
       <c r="F6" t="n">
-        <v>222.1459051671536</v>
+        <v>30.58250253653969</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1459051671536</v>
+        <v>30.58250253653969</v>
       </c>
       <c r="H6" t="n">
-        <v>111.4285808913306</v>
+        <v>30.58250253653969</v>
       </c>
       <c r="I6" t="n">
-        <v>30.58250253653966</v>
+        <v>30.58250253653969</v>
       </c>
       <c r="J6" t="n">
-        <v>55.26841185840853</v>
+        <v>30.58250253653969</v>
       </c>
       <c r="K6" t="n">
-        <v>55.26841185840853</v>
+        <v>199.3954965962106</v>
       </c>
       <c r="L6" t="n">
-        <v>225.3947882955485</v>
+        <v>487.7897962136639</v>
       </c>
       <c r="M6" t="n">
-        <v>603.8532571852268</v>
+        <v>500.1069874735561</v>
       </c>
       <c r="N6" t="n">
-        <v>982.3117260749051</v>
+        <v>878.5654563632347</v>
       </c>
       <c r="O6" t="n">
-        <v>1295.093358870263</v>
+        <v>1191.347089158593</v>
       </c>
       <c r="P6" t="n">
-        <v>1529.125126826983</v>
+        <v>1425.378857115313</v>
       </c>
       <c r="Q6" t="n">
-        <v>1529.125126826983</v>
+        <v>1529.125126826984</v>
       </c>
       <c r="R6" t="n">
-        <v>1529.125126826983</v>
+        <v>1446.569376987891</v>
       </c>
       <c r="S6" t="n">
-        <v>1360.807882607257</v>
+        <v>1278.252132768166</v>
       </c>
       <c r="T6" t="n">
-        <v>1360.807882607257</v>
+        <v>1278.252132768166</v>
       </c>
       <c r="U6" t="n">
-        <v>1360.807882607257</v>
+        <v>1278.252132768166</v>
       </c>
       <c r="V6" t="n">
-        <v>1125.655774375515</v>
+        <v>1043.100024536423</v>
       </c>
       <c r="W6" t="n">
-        <v>1125.655774375515</v>
+        <v>788.8626678082214</v>
       </c>
       <c r="X6" t="n">
-        <v>917.8042741699817</v>
+        <v>581.0111676026886</v>
       </c>
       <c r="Y6" t="n">
-        <v>710.0439754050278</v>
+        <v>373.2508688377347</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.58250253653966</v>
+        <v>327.5890894467858</v>
       </c>
       <c r="C7" t="n">
-        <v>30.58250253653966</v>
+        <v>327.5890894467858</v>
       </c>
       <c r="D7" t="n">
-        <v>30.58250253653966</v>
+        <v>177.47245003445</v>
       </c>
       <c r="E7" t="n">
-        <v>30.58250253653966</v>
+        <v>177.47245003445</v>
       </c>
       <c r="F7" t="n">
-        <v>30.58250253653966</v>
+        <v>30.58250253653969</v>
       </c>
       <c r="G7" t="n">
-        <v>30.58250253653966</v>
+        <v>30.58250253653969</v>
       </c>
       <c r="H7" t="n">
-        <v>30.58250253653966</v>
+        <v>30.58250253653969</v>
       </c>
       <c r="I7" t="n">
-        <v>30.58250253653966</v>
+        <v>30.58250253653969</v>
       </c>
       <c r="J7" t="n">
-        <v>30.58250253653966</v>
+        <v>30.58250253653969</v>
       </c>
       <c r="K7" t="n">
-        <v>34.74785162775867</v>
+        <v>34.74785162775876</v>
       </c>
       <c r="L7" t="n">
-        <v>95.60449898798176</v>
+        <v>95.60449898798193</v>
       </c>
       <c r="M7" t="n">
-        <v>170.158423992258</v>
+        <v>170.1584239922582</v>
       </c>
       <c r="N7" t="n">
-        <v>248.3742397180014</v>
+        <v>248.3742397180018</v>
       </c>
       <c r="O7" t="n">
-        <v>304.6029096228546</v>
+        <v>304.6029096228551</v>
       </c>
       <c r="P7" t="n">
-        <v>329.1955683004675</v>
+        <v>329.1955683004681</v>
       </c>
       <c r="Q7" t="n">
-        <v>261.4388107953054</v>
+        <v>327.5890894467858</v>
       </c>
       <c r="R7" t="n">
-        <v>261.4388107953054</v>
+        <v>327.5890894467858</v>
       </c>
       <c r="S7" t="n">
-        <v>259.8470164371083</v>
+        <v>327.5890894467858</v>
       </c>
       <c r="T7" t="n">
-        <v>30.58250253653966</v>
+        <v>327.5890894467858</v>
       </c>
       <c r="U7" t="n">
-        <v>30.58250253653966</v>
+        <v>327.5890894467858</v>
       </c>
       <c r="V7" t="n">
-        <v>30.58250253653966</v>
+        <v>327.5890894467858</v>
       </c>
       <c r="W7" t="n">
-        <v>30.58250253653966</v>
+        <v>327.5890894467858</v>
       </c>
       <c r="X7" t="n">
-        <v>30.58250253653966</v>
+        <v>327.5890894467858</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.58250253653966</v>
+        <v>327.5890894467858</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>819.7731851199076</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C8" t="n">
-        <v>819.7731851199076</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>819.7731851199076</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>819.7731851199076</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
         <v>625.3727659270879</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626913</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.378275356799</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X8" t="n">
-        <v>1209.912517095719</v>
+        <v>2167.012461985812</v>
       </c>
       <c r="Y8" t="n">
-        <v>819.7731851199076</v>
+        <v>2167.012461985812</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.3364050629041</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>338.4002221349972</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>188.2835827226615</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>683.5069684221791</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>683.5069684221791</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>683.5069684221791</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>428.8224802162921</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>428.8224802162921</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5027,22 +5027,22 @@
         <v>1276.502178693221</v>
       </c>
       <c r="F11" t="n">
-        <v>876.0187316112638</v>
+        <v>876.0187316112635</v>
       </c>
       <c r="G11" t="n">
-        <v>470.2703878201264</v>
+        <v>470.2703878201263</v>
       </c>
       <c r="H11" t="n">
         <v>171.121454437017</v>
       </c>
       <c r="I11" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J11" t="n">
-        <v>352.4625266553639</v>
+        <v>352.4625266553641</v>
       </c>
       <c r="K11" t="n">
-        <v>860.2779741677791</v>
+        <v>860.2779741677792</v>
       </c>
       <c r="L11" t="n">
         <v>1542.544568462677</v>
@@ -5063,10 +5063,10 @@
         <v>4658.401460222603</v>
       </c>
       <c r="R11" t="n">
-        <v>4709.931160145415</v>
+        <v>4709.931160145414</v>
       </c>
       <c r="S11" t="n">
-        <v>4583.291268133686</v>
+        <v>4583.291268133684</v>
       </c>
       <c r="T11" t="n">
         <v>4382.657745218142</v>
@@ -5115,28 +5115,28 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I12" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J12" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="K12" t="n">
-        <v>494.5017267099244</v>
+        <v>219.5561832607457</v>
       </c>
       <c r="L12" t="n">
-        <v>1094.163046133196</v>
+        <v>485.5370453776417</v>
       </c>
       <c r="M12" t="n">
-        <v>1094.163046133196</v>
+        <v>1237.292742587737</v>
       </c>
       <c r="N12" t="n">
-        <v>1881.522493117009</v>
+        <v>1581.813398225355</v>
       </c>
       <c r="O12" t="n">
-        <v>2117.307028984499</v>
+        <v>1830.566812309317</v>
       </c>
       <c r="P12" t="n">
-        <v>2625.087782060009</v>
+        <v>2338.347565384828</v>
       </c>
       <c r="Q12" t="n">
         <v>2625.087782060009</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>529.6571660025941</v>
+        <v>196.9173193736787</v>
       </c>
       <c r="C13" t="n">
-        <v>371.2234407823372</v>
+        <v>196.9173193736787</v>
       </c>
       <c r="D13" t="n">
-        <v>231.6092590776514</v>
+        <v>196.9173193736787</v>
       </c>
       <c r="E13" t="n">
-        <v>94.19862320290829</v>
+        <v>196.9173193736787</v>
       </c>
       <c r="F13" t="n">
-        <v>94.19862320290829</v>
+        <v>196.9173193736787</v>
       </c>
       <c r="G13" t="n">
-        <v>94.19862320290829</v>
+        <v>196.9173193736787</v>
       </c>
       <c r="H13" t="n">
-        <v>94.19862320290829</v>
+        <v>196.9173193736787</v>
       </c>
       <c r="I13" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J13" t="n">
         <v>112.9886256529933</v>
@@ -5206,7 +5206,7 @@
         <v>516.9148004639831</v>
       </c>
       <c r="M13" t="n">
-        <v>790.1587150323425</v>
+        <v>790.1587150323423</v>
       </c>
       <c r="N13" t="n">
         <v>1062.584871907533</v>
@@ -5221,28 +5221,28 @@
         <v>1523.75344131139</v>
       </c>
       <c r="R13" t="n">
-        <v>1420.659109327292</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="S13" t="n">
-        <v>1420.659109327292</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="T13" t="n">
-        <v>1207.136525350696</v>
+        <v>1310.230857334793</v>
       </c>
       <c r="U13" t="n">
-        <v>1207.136525350696</v>
+        <v>1310.230857334793</v>
       </c>
       <c r="V13" t="n">
-        <v>962.9544948524589</v>
+        <v>1066.048826836556</v>
       </c>
       <c r="W13" t="n">
-        <v>962.9544948524589</v>
+        <v>787.1341145072457</v>
       </c>
       <c r="X13" t="n">
-        <v>745.4674016620916</v>
+        <v>569.6470213168784</v>
       </c>
       <c r="Y13" t="n">
-        <v>700.8031731251838</v>
+        <v>368.0633264962684</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2358.011273715679</v>
+        <v>2358.011273715677</v>
       </c>
       <c r="C14" t="n">
-        <v>1999.551214482917</v>
+        <v>1999.551214482915</v>
       </c>
       <c r="D14" t="n">
-        <v>1651.787973583816</v>
+        <v>1651.787973583815</v>
       </c>
       <c r="E14" t="n">
-        <v>1276.502178693222</v>
+        <v>1276.50217869322</v>
       </c>
       <c r="F14" t="n">
-        <v>876.0187316112643</v>
+        <v>876.0187316112629</v>
       </c>
       <c r="G14" t="n">
-        <v>470.2703878201269</v>
+        <v>470.2703878201254</v>
       </c>
       <c r="H14" t="n">
         <v>171.1214544370171</v>
@@ -5276,40 +5276,40 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J14" t="n">
-        <v>352.4625266553641</v>
+        <v>352.4625266553642</v>
       </c>
       <c r="K14" t="n">
-        <v>860.2779741677792</v>
+        <v>860.2779741677793</v>
       </c>
       <c r="L14" t="n">
         <v>1542.544568462677</v>
       </c>
       <c r="M14" t="n">
-        <v>2318.304158787662</v>
+        <v>2318.304158787661</v>
       </c>
       <c r="N14" t="n">
-        <v>3091.984352769974</v>
+        <v>3091.984352769973</v>
       </c>
       <c r="O14" t="n">
-        <v>3777.360983129467</v>
+        <v>3777.360983129466</v>
       </c>
       <c r="P14" t="n">
-        <v>4324.639697485002</v>
+        <v>4324.639697485001</v>
       </c>
       <c r="Q14" t="n">
         <v>4658.401460222603</v>
       </c>
       <c r="R14" t="n">
-        <v>4709.931160145415</v>
+        <v>4709.931160145414</v>
       </c>
       <c r="S14" t="n">
-        <v>4583.291268133685</v>
+        <v>4583.291268133684</v>
       </c>
       <c r="T14" t="n">
         <v>4382.657745218143</v>
       </c>
       <c r="U14" t="n">
-        <v>4139.535458092128</v>
+        <v>4139.535458092127</v>
       </c>
       <c r="V14" t="n">
         <v>3818.975028456206</v>
@@ -5321,7 +5321,7 @@
         <v>3113.745530340312</v>
       </c>
       <c r="Y14" t="n">
-        <v>2734.108656072151</v>
+        <v>2734.10865607215</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I15" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J15" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="K15" t="n">
-        <v>94.19862320290829</v>
+        <v>219.5561832607457</v>
       </c>
       <c r="L15" t="n">
-        <v>693.8599426261802</v>
+        <v>449.5192891290948</v>
       </c>
       <c r="M15" t="n">
-        <v>1374.664697710307</v>
+        <v>1201.27498633919</v>
       </c>
       <c r="N15" t="n">
-        <v>1719.185353347925</v>
+        <v>1988.634433323003</v>
       </c>
       <c r="O15" t="n">
-        <v>2373.049745933329</v>
+        <v>2237.387847406965</v>
       </c>
       <c r="P15" t="n">
         <v>2555.69322354668</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>367.9967488679119</v>
+        <v>633.1758582159152</v>
       </c>
       <c r="C16" t="n">
-        <v>367.9967488679119</v>
+        <v>474.7421329956582</v>
       </c>
       <c r="D16" t="n">
-        <v>367.9967488679119</v>
+        <v>474.7421329956582</v>
       </c>
       <c r="E16" t="n">
-        <v>230.5861129931687</v>
+        <v>337.3314971209149</v>
       </c>
       <c r="F16" t="n">
-        <v>94.19862320290829</v>
+        <v>337.3314971209149</v>
       </c>
       <c r="G16" t="n">
-        <v>94.19862320290829</v>
+        <v>337.3314971209149</v>
       </c>
       <c r="H16" t="n">
-        <v>94.19862320290829</v>
+        <v>196.9173193736788</v>
       </c>
       <c r="I16" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J16" t="n">
         <v>112.9886256529933</v>
@@ -5440,7 +5440,7 @@
         <v>267.0813524192174</v>
       </c>
       <c r="L16" t="n">
-        <v>516.9148004639829</v>
+        <v>516.9148004639831</v>
       </c>
       <c r="M16" t="n">
         <v>790.1587150323423</v>
@@ -5461,25 +5461,25 @@
         <v>1523.753441311389</v>
       </c>
       <c r="S16" t="n">
-        <v>1333.358518827819</v>
+        <v>1523.753441311389</v>
       </c>
       <c r="T16" t="n">
-        <v>1272.52962025393</v>
+        <v>1523.753441311389</v>
       </c>
       <c r="U16" t="n">
-        <v>1272.52962025393</v>
+        <v>1523.753441311389</v>
       </c>
       <c r="V16" t="n">
-        <v>1028.347589755693</v>
+        <v>1279.571410813152</v>
       </c>
       <c r="W16" t="n">
-        <v>749.432877426382</v>
+        <v>1060.953072842163</v>
       </c>
       <c r="X16" t="n">
-        <v>749.432877426382</v>
+        <v>843.4659796517954</v>
       </c>
       <c r="Y16" t="n">
-        <v>539.1427559905018</v>
+        <v>633.1758582159152</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>1276.502178693221</v>
       </c>
       <c r="F17" t="n">
-        <v>876.0187316112635</v>
+        <v>876.0187316112638</v>
       </c>
       <c r="G17" t="n">
-        <v>470.2703878201262</v>
+        <v>470.2703878201264</v>
       </c>
       <c r="H17" t="n">
-        <v>171.1214544370168</v>
+        <v>171.121454437017</v>
       </c>
       <c r="I17" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J17" t="n">
-        <v>352.4625266553639</v>
+        <v>352.4625266553641</v>
       </c>
       <c r="K17" t="n">
-        <v>860.2779741677796</v>
+        <v>860.2779741677792</v>
       </c>
       <c r="L17" t="n">
         <v>1542.544568462677</v>
@@ -5531,19 +5531,19 @@
         <v>3777.360983129466</v>
       </c>
       <c r="P17" t="n">
-        <v>4324.639697485002</v>
+        <v>4324.639697485001</v>
       </c>
       <c r="Q17" t="n">
         <v>4658.401460222603</v>
       </c>
       <c r="R17" t="n">
-        <v>4709.931160145415</v>
+        <v>4709.931160145414</v>
       </c>
       <c r="S17" t="n">
-        <v>4583.291268133685</v>
+        <v>4583.291268133684</v>
       </c>
       <c r="T17" t="n">
-        <v>4382.657745218143</v>
+        <v>4382.657745218142</v>
       </c>
       <c r="U17" t="n">
         <v>4139.535458092126</v>
@@ -5589,25 +5589,25 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I18" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J18" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="K18" t="n">
         <v>219.5561832607457</v>
       </c>
       <c r="L18" t="n">
-        <v>449.5192891290948</v>
+        <v>819.2175026840176</v>
       </c>
       <c r="M18" t="n">
-        <v>1201.27498633919</v>
+        <v>1570.973199894113</v>
       </c>
       <c r="N18" t="n">
-        <v>1545.795641976808</v>
+        <v>2124.296331849367</v>
       </c>
       <c r="O18" t="n">
-        <v>2199.660034562212</v>
+        <v>2373.049745933329</v>
       </c>
       <c r="P18" t="n">
         <v>2555.69322354668</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>652.6941730628801</v>
+        <v>650.4906272329375</v>
       </c>
       <c r="C19" t="n">
-        <v>494.2604478426231</v>
+        <v>492.0569020126806</v>
       </c>
       <c r="D19" t="n">
-        <v>354.6462661379374</v>
+        <v>492.0569020126806</v>
       </c>
       <c r="E19" t="n">
-        <v>354.6462661379374</v>
+        <v>354.6462661379375</v>
       </c>
       <c r="F19" t="n">
-        <v>354.6462661379374</v>
+        <v>354.6462661379375</v>
       </c>
       <c r="G19" t="n">
         <v>196.9173193736787</v>
@@ -5668,19 +5668,19 @@
         <v>196.9173193736787</v>
       </c>
       <c r="I19" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J19" t="n">
-        <v>112.9886256529933</v>
+        <v>112.9886256529932</v>
       </c>
       <c r="K19" t="n">
-        <v>267.0813524192175</v>
+        <v>267.0813524192174</v>
       </c>
       <c r="L19" t="n">
-        <v>516.9148004639833</v>
+        <v>516.9148004639829</v>
       </c>
       <c r="M19" t="n">
-        <v>790.1587150323426</v>
+        <v>790.1587150323423</v>
       </c>
       <c r="N19" t="n">
         <v>1062.584871907533</v>
@@ -5701,22 +5701,22 @@
         <v>1523.75344131139</v>
       </c>
       <c r="T19" t="n">
-        <v>1310.230857334793</v>
+        <v>1344.447904993923</v>
       </c>
       <c r="U19" t="n">
-        <v>1102.75489251478</v>
+        <v>1065.818664853764</v>
       </c>
       <c r="V19" t="n">
-        <v>1102.75489251478</v>
+        <v>821.6366343555272</v>
       </c>
       <c r="W19" t="n">
-        <v>823.8401801854698</v>
+        <v>821.6366343555272</v>
       </c>
       <c r="X19" t="n">
-        <v>823.8401801854698</v>
+        <v>821.6366343555272</v>
       </c>
       <c r="Y19" t="n">
-        <v>823.8401801854698</v>
+        <v>821.6366343555272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2358.011273715679</v>
+        <v>2358.011273715678</v>
       </c>
       <c r="C20" t="n">
-        <v>1999.551214482917</v>
+        <v>1999.551214482916</v>
       </c>
       <c r="D20" t="n">
         <v>1651.787973583816</v>
       </c>
       <c r="E20" t="n">
-        <v>1276.502178693222</v>
+        <v>1276.502178693221</v>
       </c>
       <c r="F20" t="n">
-        <v>876.0187316112646</v>
+        <v>876.0187316112638</v>
       </c>
       <c r="G20" t="n">
-        <v>470.2703878201263</v>
+        <v>470.2703878201264</v>
       </c>
       <c r="H20" t="n">
-        <v>171.121454437017</v>
+        <v>171.1214544370171</v>
       </c>
       <c r="I20" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J20" t="n">
-        <v>352.4625266553649</v>
+        <v>352.4625266553644</v>
       </c>
       <c r="K20" t="n">
-        <v>860.2779741677791</v>
+        <v>860.2779741677796</v>
       </c>
       <c r="L20" t="n">
         <v>1542.544568462677</v>
@@ -5774,28 +5774,28 @@
         <v>4658.401460222603</v>
       </c>
       <c r="R20" t="n">
-        <v>4709.931160145415</v>
+        <v>4709.931160145414</v>
       </c>
       <c r="S20" t="n">
-        <v>4583.291268133685</v>
+        <v>4583.291268133684</v>
       </c>
       <c r="T20" t="n">
-        <v>4382.657745218143</v>
+        <v>4382.657745218142</v>
       </c>
       <c r="U20" t="n">
-        <v>4139.535458092127</v>
+        <v>4139.535458092126</v>
       </c>
       <c r="V20" t="n">
-        <v>3818.975028456206</v>
+        <v>3818.975028456205</v>
       </c>
       <c r="W20" t="n">
-        <v>3476.708830893742</v>
+        <v>3476.708830893741</v>
       </c>
       <c r="X20" t="n">
-        <v>3113.745530340312</v>
+        <v>3113.745530340311</v>
       </c>
       <c r="Y20" t="n">
-        <v>2734.108656072151</v>
+        <v>2734.10865607215</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I21" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J21" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="K21" t="n">
-        <v>219.5561832607457</v>
+        <v>486.3348044259101</v>
       </c>
       <c r="L21" t="n">
-        <v>449.5192891290948</v>
+        <v>1085.996123849182</v>
       </c>
       <c r="M21" t="n">
-        <v>1201.27498633919</v>
+        <v>1406.331443378884</v>
       </c>
       <c r="N21" t="n">
-        <v>1799.159056387207</v>
+        <v>2193.690890362696</v>
       </c>
       <c r="O21" t="n">
-        <v>2047.912470471169</v>
+        <v>2442.444304446658</v>
       </c>
       <c r="P21" t="n">
-        <v>2555.69322354668</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="Q21" t="n">
         <v>2625.087782060009</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>401.7334767350053</v>
+        <v>447.7871192369957</v>
       </c>
       <c r="C22" t="n">
-        <v>243.2997515147484</v>
+        <v>289.3533940167388</v>
       </c>
       <c r="D22" t="n">
-        <v>103.6855698100623</v>
+        <v>149.739212312053</v>
       </c>
       <c r="E22" t="n">
-        <v>103.6855698100623</v>
+        <v>149.739212312053</v>
       </c>
       <c r="F22" t="n">
-        <v>103.6855698100623</v>
+        <v>149.739212312053</v>
       </c>
       <c r="G22" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="H22" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="I22" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J22" t="n">
         <v>112.9886256529933</v>
       </c>
       <c r="K22" t="n">
-        <v>267.0813524192175</v>
+        <v>267.0813524192174</v>
       </c>
       <c r="L22" t="n">
-        <v>516.9148004639831</v>
+        <v>516.9148004639829</v>
       </c>
       <c r="M22" t="n">
-        <v>790.1587150323425</v>
+        <v>790.1587150323421</v>
       </c>
       <c r="N22" t="n">
-        <v>1062.584871907533</v>
+        <v>1062.584871907532</v>
       </c>
       <c r="O22" t="n">
         <v>1298.984009272058</v>
@@ -5929,31 +5929,31 @@
         <v>1479.229254818016</v>
       </c>
       <c r="Q22" t="n">
-        <v>1523.75344131139</v>
+        <v>1523.753441311389</v>
       </c>
       <c r="R22" t="n">
-        <v>1523.75344131139</v>
+        <v>1420.659109327292</v>
       </c>
       <c r="S22" t="n">
-        <v>1523.75344131139</v>
+        <v>1420.659109327292</v>
       </c>
       <c r="T22" t="n">
-        <v>1523.75344131139</v>
+        <v>1420.659109327292</v>
       </c>
       <c r="U22" t="n">
-        <v>1523.75344131139</v>
+        <v>1142.029869187133</v>
       </c>
       <c r="V22" t="n">
-        <v>1279.571410813153</v>
+        <v>897.8478386888961</v>
       </c>
       <c r="W22" t="n">
-        <v>1000.656698483842</v>
+        <v>618.9331263595855</v>
       </c>
       <c r="X22" t="n">
-        <v>783.1696052934751</v>
+        <v>618.9331263595855</v>
       </c>
       <c r="Y22" t="n">
-        <v>572.879483857595</v>
+        <v>618.9331263595855</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2358.011273715677</v>
+        <v>2358.011273715678</v>
       </c>
       <c r="C23" t="n">
         <v>1999.551214482916</v>
       </c>
       <c r="D23" t="n">
-        <v>1651.787973583815</v>
+        <v>1651.787973583816</v>
       </c>
       <c r="E23" t="n">
         <v>1276.502178693221</v>
       </c>
       <c r="F23" t="n">
-        <v>876.0187316112635</v>
+        <v>876.0187316112638</v>
       </c>
       <c r="G23" t="n">
-        <v>470.2703878201262</v>
+        <v>470.2703878201264</v>
       </c>
       <c r="H23" t="n">
         <v>171.121454437017</v>
       </c>
       <c r="I23" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J23" t="n">
-        <v>352.4625266553644</v>
+        <v>352.4625266553641</v>
       </c>
       <c r="K23" t="n">
-        <v>860.2779741677796</v>
+        <v>860.2779741677792</v>
       </c>
       <c r="L23" t="n">
         <v>1542.544568462677</v>
       </c>
       <c r="M23" t="n">
-        <v>2318.304158787662</v>
+        <v>2318.304158787661</v>
       </c>
       <c r="N23" t="n">
-        <v>3091.984352769974</v>
+        <v>3091.984352769973</v>
       </c>
       <c r="O23" t="n">
         <v>3777.360983129466</v>
@@ -6011,28 +6011,28 @@
         <v>4658.401460222603</v>
       </c>
       <c r="R23" t="n">
-        <v>4709.931160145415</v>
+        <v>4709.931160145414</v>
       </c>
       <c r="S23" t="n">
-        <v>4583.291268133685</v>
+        <v>4583.291268133684</v>
       </c>
       <c r="T23" t="n">
-        <v>4382.657745218143</v>
+        <v>4382.657745218142</v>
       </c>
       <c r="U23" t="n">
-        <v>4139.535458092127</v>
+        <v>4139.535458092126</v>
       </c>
       <c r="V23" t="n">
         <v>3818.975028456205</v>
       </c>
       <c r="W23" t="n">
-        <v>3476.70883089374</v>
+        <v>3476.708830893741</v>
       </c>
       <c r="X23" t="n">
         <v>3113.745530340311</v>
       </c>
       <c r="Y23" t="n">
-        <v>2734.108656072149</v>
+        <v>2734.10865607215</v>
       </c>
     </row>
     <row r="24">
@@ -6063,19 +6063,19 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I24" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J24" t="n">
-        <v>254.3254551313248</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="K24" t="n">
-        <v>654.6285586383409</v>
+        <v>219.5561832607457</v>
       </c>
       <c r="L24" t="n">
-        <v>654.6285586383409</v>
+        <v>819.2175026840176</v>
       </c>
       <c r="M24" t="n">
-        <v>654.6285586383409</v>
+        <v>1176.702419723913</v>
       </c>
       <c r="N24" t="n">
         <v>1176.702419723913</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>604.6460277870151</v>
+        <v>528.6340199181116</v>
       </c>
       <c r="C25" t="n">
-        <v>446.2123025667582</v>
+        <v>370.2002946978544</v>
       </c>
       <c r="D25" t="n">
-        <v>446.2123025667582</v>
+        <v>230.5861129931687</v>
       </c>
       <c r="E25" t="n">
-        <v>392.341747714403</v>
+        <v>230.5861129931687</v>
       </c>
       <c r="F25" t="n">
-        <v>392.341747714403</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="G25" t="n">
-        <v>234.6128009501444</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="H25" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="I25" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J25" t="n">
         <v>112.9886256529933</v>
       </c>
       <c r="K25" t="n">
-        <v>267.0813524192176</v>
+        <v>267.0813524192175</v>
       </c>
       <c r="L25" t="n">
-        <v>516.9148004639832</v>
+        <v>516.9148004639831</v>
       </c>
       <c r="M25" t="n">
         <v>790.1587150323426</v>
@@ -6160,37 +6160,37 @@
         <v>1062.584871907533</v>
       </c>
       <c r="O25" t="n">
-        <v>1298.984009272059</v>
+        <v>1298.984009272058</v>
       </c>
       <c r="P25" t="n">
-        <v>1479.229254818017</v>
+        <v>1479.229254818016</v>
       </c>
       <c r="Q25" t="n">
-        <v>1523.75344131139</v>
+        <v>1523.753441311389</v>
       </c>
       <c r="R25" t="n">
-        <v>1420.659109327293</v>
+        <v>1523.753441311389</v>
       </c>
       <c r="S25" t="n">
-        <v>1230.264186843722</v>
+        <v>1523.753441311389</v>
       </c>
       <c r="T25" t="n">
-        <v>1230.264186843722</v>
+        <v>1523.753441311389</v>
       </c>
       <c r="U25" t="n">
-        <v>1230.264186843722</v>
+        <v>1245.124201171231</v>
       </c>
       <c r="V25" t="n">
-        <v>986.0821563454849</v>
+        <v>1000.942170672994</v>
       </c>
       <c r="W25" t="n">
-        <v>986.0821563454849</v>
+        <v>1000.942170672994</v>
       </c>
       <c r="X25" t="n">
-        <v>986.0821563454849</v>
+        <v>910.0701484765814</v>
       </c>
       <c r="Y25" t="n">
-        <v>775.7920349096048</v>
+        <v>699.7800270407013</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2358.011273715677</v>
+        <v>2358.011273715678</v>
       </c>
       <c r="C26" t="n">
         <v>1999.551214482916</v>
       </c>
       <c r="D26" t="n">
-        <v>1651.787973583815</v>
+        <v>1651.787973583816</v>
       </c>
       <c r="E26" t="n">
         <v>1276.502178693221</v>
       </c>
       <c r="F26" t="n">
-        <v>876.0187316112635</v>
+        <v>876.0187316112638</v>
       </c>
       <c r="G26" t="n">
-        <v>470.2703878201262</v>
+        <v>470.2703878201264</v>
       </c>
       <c r="H26" t="n">
         <v>171.121454437017</v>
       </c>
       <c r="I26" t="n">
-        <v>94.19862320290828</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J26" t="n">
-        <v>352.4625266553641</v>
+        <v>352.4625266553649</v>
       </c>
       <c r="K26" t="n">
-        <v>860.2779741677792</v>
+        <v>860.27797416778</v>
       </c>
       <c r="L26" t="n">
-        <v>1542.544568462677</v>
+        <v>1542.544568462678</v>
       </c>
       <c r="M26" t="n">
-        <v>2318.304158787661</v>
+        <v>2318.304158787662</v>
       </c>
       <c r="N26" t="n">
-        <v>3091.984352769973</v>
+        <v>3091.984352769974</v>
       </c>
       <c r="O26" t="n">
-        <v>3777.360983129466</v>
+        <v>3777.360983129467</v>
       </c>
       <c r="P26" t="n">
-        <v>4324.639697485001</v>
+        <v>4324.639697485002</v>
       </c>
       <c r="Q26" t="n">
         <v>4658.401460222603</v>
       </c>
       <c r="R26" t="n">
-        <v>4709.931160145414</v>
+        <v>4709.931160145415</v>
       </c>
       <c r="S26" t="n">
-        <v>4583.291268133684</v>
+        <v>4583.291268133685</v>
       </c>
       <c r="T26" t="n">
-        <v>4382.657745218142</v>
+        <v>4382.657745218143</v>
       </c>
       <c r="U26" t="n">
-        <v>4139.535458092126</v>
+        <v>4139.535458092127</v>
       </c>
       <c r="V26" t="n">
-        <v>3818.975028456205</v>
+        <v>3818.975028456206</v>
       </c>
       <c r="W26" t="n">
-        <v>3476.70883089374</v>
+        <v>3476.708830893741</v>
       </c>
       <c r="X26" t="n">
         <v>3113.745530340311</v>
       </c>
       <c r="Y26" t="n">
-        <v>2734.108656072149</v>
+        <v>2734.10865607215</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I27" t="n">
-        <v>94.19862320290828</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J27" t="n">
-        <v>254.3254551313248</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="K27" t="n">
-        <v>654.6285586383409</v>
+        <v>494.5017267099244</v>
       </c>
       <c r="L27" t="n">
-        <v>1254.289878061613</v>
+        <v>1094.163046133196</v>
       </c>
       <c r="M27" t="n">
-        <v>2006.045575271708</v>
+        <v>1845.918743343292</v>
       </c>
       <c r="N27" t="n">
-        <v>2625.087782060009</v>
+        <v>1845.918743343292</v>
       </c>
       <c r="O27" t="n">
-        <v>2625.087782060009</v>
+        <v>2442.444304446658</v>
       </c>
       <c r="P27" t="n">
         <v>2625.087782060009</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>805.7540550840922</v>
+        <v>393.0465261704014</v>
       </c>
       <c r="C28" t="n">
-        <v>805.7540550840922</v>
+        <v>234.6128009501444</v>
       </c>
       <c r="D28" t="n">
-        <v>666.1398733794065</v>
+        <v>234.6128009501444</v>
       </c>
       <c r="E28" t="n">
-        <v>528.7292375046634</v>
+        <v>234.6128009501444</v>
       </c>
       <c r="F28" t="n">
-        <v>392.341747714403</v>
+        <v>234.6128009501444</v>
       </c>
       <c r="G28" t="n">
         <v>234.6128009501444</v>
       </c>
       <c r="H28" t="n">
-        <v>94.19862320290828</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="I28" t="n">
-        <v>94.19862320290828</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J28" t="n">
         <v>112.9886256529934</v>
@@ -6388,7 +6388,7 @@
         <v>267.0813524192176</v>
       </c>
       <c r="L28" t="n">
-        <v>516.9148004639833</v>
+        <v>516.9148004639832</v>
       </c>
       <c r="M28" t="n">
         <v>790.1587150323427</v>
@@ -6403,31 +6403,31 @@
         <v>1479.229254818017</v>
       </c>
       <c r="Q28" t="n">
-        <v>1523.753441311391</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="R28" t="n">
-        <v>1523.753441311391</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="S28" t="n">
-        <v>1333.35851882782</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="T28" t="n">
-        <v>1333.35851882782</v>
+        <v>1514.781018557635</v>
       </c>
       <c r="U28" t="n">
-        <v>1054.729278687661</v>
+        <v>1236.151778417475</v>
       </c>
       <c r="V28" t="n">
-        <v>810.5472481894242</v>
+        <v>991.9697479192386</v>
       </c>
       <c r="W28" t="n">
-        <v>810.5472481894242</v>
+        <v>991.9697479192386</v>
       </c>
       <c r="X28" t="n">
-        <v>805.7540550840922</v>
+        <v>774.4826547288712</v>
       </c>
       <c r="Y28" t="n">
-        <v>805.7540550840922</v>
+        <v>564.1925332929911</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2358.011273715679</v>
+        <v>2358.011273715678</v>
       </c>
       <c r="C29" t="n">
-        <v>1999.551214482917</v>
+        <v>1999.551214482916</v>
       </c>
       <c r="D29" t="n">
         <v>1651.787973583816</v>
       </c>
       <c r="E29" t="n">
-        <v>1276.502178693222</v>
+        <v>1276.502178693221</v>
       </c>
       <c r="F29" t="n">
-        <v>876.0187316112647</v>
+        <v>876.0187316112638</v>
       </c>
       <c r="G29" t="n">
-        <v>470.2703878201262</v>
+        <v>470.2703878201263</v>
       </c>
       <c r="H29" t="n">
-        <v>171.1214544370169</v>
+        <v>171.121454437017</v>
       </c>
       <c r="I29" t="n">
         <v>94.19862320290829</v>
       </c>
       <c r="J29" t="n">
-        <v>352.4625266553649</v>
+        <v>352.4625266553639</v>
       </c>
       <c r="K29" t="n">
         <v>860.2779741677791</v>
@@ -6506,7 +6506,7 @@
         <v>3113.745530340312</v>
       </c>
       <c r="Y29" t="n">
-        <v>2734.108656072151</v>
+        <v>2734.10865607215</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>1254.289878061613</v>
       </c>
       <c r="M30" t="n">
-        <v>1837.728335076197</v>
+        <v>2006.045575271708</v>
       </c>
       <c r="N30" t="n">
         <v>2625.087782060009</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.6228586931498</v>
+        <v>752.6869048653238</v>
       </c>
       <c r="C31" t="n">
-        <v>94.19862320290829</v>
+        <v>752.6869048653238</v>
       </c>
       <c r="D31" t="n">
-        <v>94.19862320290829</v>
+        <v>752.6869048653238</v>
       </c>
       <c r="E31" t="n">
-        <v>94.19862320290829</v>
+        <v>615.2762689905808</v>
       </c>
       <c r="F31" t="n">
-        <v>94.19862320290829</v>
+        <v>478.8887792003205</v>
       </c>
       <c r="G31" t="n">
-        <v>94.19862320290829</v>
+        <v>337.3314971209148</v>
       </c>
       <c r="H31" t="n">
-        <v>94.19862320290829</v>
+        <v>196.9173193736787</v>
       </c>
       <c r="I31" t="n">
         <v>94.19862320290829</v>
       </c>
       <c r="J31" t="n">
-        <v>112.9886256529935</v>
+        <v>112.9886256529933</v>
       </c>
       <c r="K31" t="n">
-        <v>267.0813524192178</v>
+        <v>267.0813524192175</v>
       </c>
       <c r="L31" t="n">
-        <v>516.9148004639834</v>
+        <v>516.9148004639831</v>
       </c>
       <c r="M31" t="n">
-        <v>790.1587150323428</v>
+        <v>790.1587150323426</v>
       </c>
       <c r="N31" t="n">
         <v>1062.584871907533</v>
       </c>
       <c r="O31" t="n">
-        <v>1298.984009272059</v>
+        <v>1298.984009272058</v>
       </c>
       <c r="P31" t="n">
-        <v>1479.229254818017</v>
+        <v>1479.229254818016</v>
       </c>
       <c r="Q31" t="n">
-        <v>1523.753441311391</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="R31" t="n">
-        <v>1523.753441311391</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="S31" t="n">
-        <v>1333.35851882782</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="T31" t="n">
-        <v>1119.835934851224</v>
+        <v>1310.230857334793</v>
       </c>
       <c r="U31" t="n">
-        <v>841.2066947110644</v>
+        <v>1031.601617194634</v>
       </c>
       <c r="V31" t="n">
-        <v>597.0246642128275</v>
+        <v>1031.601617194634</v>
       </c>
       <c r="W31" t="n">
-        <v>318.1099518835169</v>
+        <v>752.6869048653238</v>
       </c>
       <c r="X31" t="n">
-        <v>100.6228586931498</v>
+        <v>752.6869048653238</v>
       </c>
       <c r="Y31" t="n">
-        <v>100.6228586931498</v>
+        <v>752.6869048653238</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2360.171766818875</v>
+        <v>2416.705033755183</v>
       </c>
       <c r="C32" t="n">
-        <v>1991.209249878464</v>
+        <v>2047.742516814771</v>
       </c>
       <c r="D32" t="n">
-        <v>1632.943551271713</v>
+        <v>1689.476818208021</v>
       </c>
       <c r="E32" t="n">
-        <v>1247.155298673469</v>
+        <v>1303.688565609776</v>
       </c>
       <c r="F32" t="n">
-        <v>907.5261047342137</v>
+        <v>892.7026608201688</v>
       </c>
       <c r="G32" t="n">
-        <v>491.2753032354263</v>
+        <v>476.4518593213814</v>
       </c>
       <c r="H32" t="n">
-        <v>181.623912144667</v>
+        <v>166.8004682306221</v>
       </c>
       <c r="I32" t="n">
         <v>94.19862320290829</v>
       </c>
       <c r="J32" t="n">
-        <v>352.4625266553644</v>
+        <v>352.4625266553641</v>
       </c>
       <c r="K32" t="n">
-        <v>860.2779741677796</v>
+        <v>860.2779741677792</v>
       </c>
       <c r="L32" t="n">
         <v>1542.544568462677</v>
       </c>
       <c r="M32" t="n">
-        <v>2318.304158787662</v>
+        <v>2318.304158787661</v>
       </c>
       <c r="N32" t="n">
-        <v>3091.984352769974</v>
+        <v>3091.984352769973</v>
       </c>
       <c r="O32" t="n">
-        <v>3777.360983129467</v>
+        <v>3777.360983129466</v>
       </c>
       <c r="P32" t="n">
-        <v>4324.639697485002</v>
+        <v>4324.639697485001</v>
       </c>
       <c r="Q32" t="n">
         <v>4658.401460222603</v>
@@ -6731,19 +6731,19 @@
         <v>4361.652829802842</v>
       </c>
       <c r="U32" t="n">
-        <v>4179.384795819528</v>
+        <v>4108.028084969176</v>
       </c>
       <c r="V32" t="n">
         <v>3848.321908475958</v>
       </c>
       <c r="W32" t="n">
-        <v>3495.553253205843</v>
+        <v>3566.909964056196</v>
       </c>
       <c r="X32" t="n">
-        <v>3122.087494944763</v>
+        <v>3193.444205795116</v>
       </c>
       <c r="Y32" t="n">
-        <v>2731.948162968952</v>
+        <v>2803.304873819305</v>
       </c>
     </row>
     <row r="33">
@@ -6780,16 +6780,16 @@
         <v>254.3254551313248</v>
       </c>
       <c r="K33" t="n">
-        <v>654.6285586383409</v>
+        <v>607.2561179137904</v>
       </c>
       <c r="L33" t="n">
-        <v>1085.972637866102</v>
+        <v>837.2192237821395</v>
       </c>
       <c r="M33" t="n">
-        <v>1837.728335076197</v>
+        <v>1588.974920992235</v>
       </c>
       <c r="N33" t="n">
-        <v>2625.087782060009</v>
+        <v>2376.334367976047</v>
       </c>
       <c r="O33" t="n">
         <v>2625.087782060009</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>640.9267044762042</v>
+        <v>640.9267044762031</v>
       </c>
       <c r="C34" t="n">
-        <v>543.3472323986497</v>
+        <v>543.3472323986485</v>
       </c>
       <c r="D34" t="n">
-        <v>464.5873038366652</v>
+        <v>464.5873038366651</v>
       </c>
       <c r="E34" t="n">
-        <v>388.0309211046244</v>
+        <v>388.0309211046243</v>
       </c>
       <c r="F34" t="n">
-        <v>312.4976844570664</v>
+        <v>312.4976844570663</v>
       </c>
       <c r="G34" t="n">
-        <v>215.6229908355101</v>
+        <v>215.6229908355102</v>
       </c>
       <c r="H34" t="n">
         <v>136.0630662309763</v>
@@ -6856,31 +6856,31 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J34" t="n">
-        <v>172.631879158156</v>
+        <v>172.6318791581554</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3678594295427</v>
+        <v>386.3678594295422</v>
       </c>
       <c r="L34" t="n">
-        <v>695.8445609794709</v>
+        <v>695.8445609794703</v>
       </c>
       <c r="M34" t="n">
-        <v>1028.731729052993</v>
+        <v>1028.731729052992</v>
       </c>
       <c r="N34" t="n">
-        <v>1360.801139433346</v>
+        <v>1360.801139433345</v>
       </c>
       <c r="O34" t="n">
-        <v>1656.843530303034</v>
+        <v>1656.843530303033</v>
       </c>
       <c r="P34" t="n">
-        <v>1896.732029354155</v>
+        <v>1896.732029354154</v>
       </c>
       <c r="Q34" t="n">
-        <v>2000.899469352691</v>
+        <v>2000.89946935269</v>
       </c>
       <c r="R34" t="n">
-        <v>1958.659390511296</v>
+        <v>1958.659390511295</v>
       </c>
       <c r="S34" t="n">
         <v>1829.118721170427</v>
@@ -6889,19 +6889,19 @@
         <v>1676.450390336533</v>
       </c>
       <c r="U34" t="n">
-        <v>1458.675403339077</v>
+        <v>1458.675403339076</v>
       </c>
       <c r="V34" t="n">
-        <v>1275.347625983543</v>
+        <v>1275.347625983542</v>
       </c>
       <c r="W34" t="n">
-        <v>1057.287166796934</v>
+        <v>1057.287166796933</v>
       </c>
       <c r="X34" t="n">
-        <v>900.6543267492693</v>
+        <v>900.6543267492682</v>
       </c>
       <c r="Y34" t="n">
-        <v>751.2184584560916</v>
+        <v>751.2184584560905</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2431.528477669228</v>
+        <v>2360.171766818875</v>
       </c>
       <c r="C35" t="n">
-        <v>2062.565960728816</v>
+        <v>1991.209249878464</v>
       </c>
       <c r="D35" t="n">
-        <v>1704.300262122066</v>
+        <v>1632.943551271713</v>
       </c>
       <c r="E35" t="n">
-        <v>1318.512009523821</v>
+        <v>1247.155298673469</v>
       </c>
       <c r="F35" t="n">
-        <v>907.5261047342137</v>
+        <v>836.1693938838614</v>
       </c>
       <c r="G35" t="n">
-        <v>491.2753032354263</v>
+        <v>419.918592385074</v>
       </c>
       <c r="H35" t="n">
         <v>181.623912144667</v>
@@ -6935,10 +6935,10 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J35" t="n">
-        <v>352.4625266553642</v>
+        <v>352.4625266553639</v>
       </c>
       <c r="K35" t="n">
-        <v>860.2779741677793</v>
+        <v>860.2779741677791</v>
       </c>
       <c r="L35" t="n">
         <v>1542.544568462677</v>
@@ -6947,13 +6947,13 @@
         <v>2318.304158787661</v>
       </c>
       <c r="N35" t="n">
-        <v>3091.984352769974</v>
+        <v>3091.984352769973</v>
       </c>
       <c r="O35" t="n">
-        <v>3777.360983129467</v>
+        <v>3777.360983129466</v>
       </c>
       <c r="P35" t="n">
-        <v>4324.639697485002</v>
+        <v>4324.639697485001</v>
       </c>
       <c r="Q35" t="n">
         <v>4658.401460222603</v>
@@ -6962,25 +6962,25 @@
         <v>4709.931160145415</v>
       </c>
       <c r="S35" t="n">
-        <v>4644.145521276388</v>
+        <v>4572.788810426035</v>
       </c>
       <c r="T35" t="n">
         <v>4433.009540653195</v>
       </c>
       <c r="U35" t="n">
-        <v>4250.741506669881</v>
+        <v>4179.384795819529</v>
       </c>
       <c r="V35" t="n">
-        <v>3919.678619326311</v>
+        <v>3848.321908475958</v>
       </c>
       <c r="W35" t="n">
-        <v>3566.909964056196</v>
+        <v>3510.376697119889</v>
       </c>
       <c r="X35" t="n">
-        <v>3208.267649709162</v>
+        <v>3136.910938858809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2818.12831773335</v>
+        <v>2746.771606882997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J36" t="n">
-        <v>181.3444301674666</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="K36" t="n">
-        <v>581.6475336744827</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="L36" t="n">
-        <v>581.6475336744827</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="M36" t="n">
-        <v>1333.403230884578</v>
+        <v>676.0831894152816</v>
       </c>
       <c r="N36" t="n">
-        <v>1677.923886522196</v>
+        <v>1463.442636399094</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.7882791076</v>
+        <v>2117.307028984499</v>
       </c>
       <c r="P36" t="n">
-        <v>2331.7882791076</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="Q36" t="n">
-        <v>2618.528495782782</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="R36" t="n">
         <v>2625.087782060009</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>640.9267044762034</v>
+        <v>640.9267044762029</v>
       </c>
       <c r="C37" t="n">
-        <v>543.3472323986489</v>
+        <v>543.3472323986483</v>
       </c>
       <c r="D37" t="n">
-        <v>464.5873038366655</v>
+        <v>464.5873038366649</v>
       </c>
       <c r="E37" t="n">
-        <v>388.0309211046247</v>
+        <v>388.0309211046241</v>
       </c>
       <c r="F37" t="n">
-        <v>312.4976844570667</v>
+        <v>312.497684457066</v>
       </c>
       <c r="G37" t="n">
-        <v>215.6229908355103</v>
+        <v>215.6229908355097</v>
       </c>
       <c r="H37" t="n">
-        <v>136.0630662309763</v>
+        <v>136.0630662309759</v>
       </c>
       <c r="I37" t="n">
         <v>94.19862320290829</v>
       </c>
       <c r="J37" t="n">
-        <v>172.6318791581559</v>
+        <v>172.6318791581557</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3678594295427</v>
+        <v>386.3678594295425</v>
       </c>
       <c r="L37" t="n">
-        <v>695.8445609794709</v>
+        <v>695.8445609794705</v>
       </c>
       <c r="M37" t="n">
-        <v>1028.731729052993</v>
+        <v>1028.731729052992</v>
       </c>
       <c r="N37" t="n">
-        <v>1360.801139433346</v>
+        <v>1360.801139433345</v>
       </c>
       <c r="O37" t="n">
         <v>1656.843530303034</v>
@@ -7117,7 +7117,7 @@
         <v>2000.899469352691</v>
       </c>
       <c r="R37" t="n">
-        <v>1958.659390511296</v>
+        <v>1958.659390511295</v>
       </c>
       <c r="S37" t="n">
         <v>1829.118721170427</v>
@@ -7132,13 +7132,13 @@
         <v>1275.347625983542</v>
       </c>
       <c r="W37" t="n">
-        <v>1057.287166796934</v>
+        <v>1057.287166796933</v>
       </c>
       <c r="X37" t="n">
-        <v>900.6543267492686</v>
+        <v>900.6543267492682</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2184584560908</v>
+        <v>751.2184584560903</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2360.171766818875</v>
+        <v>2431.528477669228</v>
       </c>
       <c r="C38" t="n">
-        <v>1991.209249878464</v>
+        <v>2062.565960728816</v>
       </c>
       <c r="D38" t="n">
-        <v>1632.943551271713</v>
+        <v>1704.300262122066</v>
       </c>
       <c r="E38" t="n">
-        <v>1247.155298673469</v>
+        <v>1318.512009523821</v>
       </c>
       <c r="F38" t="n">
         <v>907.5261047342137</v>
@@ -7169,55 +7169,55 @@
         <v>181.623912144667</v>
       </c>
       <c r="I38" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J38" t="n">
-        <v>352.4625266553642</v>
+        <v>352.4625266553641</v>
       </c>
       <c r="K38" t="n">
-        <v>860.2779741677793</v>
+        <v>860.2779741677792</v>
       </c>
       <c r="L38" t="n">
         <v>1542.544568462677</v>
       </c>
       <c r="M38" t="n">
-        <v>2318.304158787662</v>
+        <v>2318.304158787661</v>
       </c>
       <c r="N38" t="n">
-        <v>3091.984352769974</v>
+        <v>3091.984352769973</v>
       </c>
       <c r="O38" t="n">
-        <v>3777.360983129467</v>
+        <v>3777.360983129466</v>
       </c>
       <c r="P38" t="n">
-        <v>4324.639697485002</v>
+        <v>4324.639697485001</v>
       </c>
       <c r="Q38" t="n">
         <v>4658.401460222603</v>
       </c>
       <c r="R38" t="n">
-        <v>4709.931160145415</v>
+        <v>4709.931160145414</v>
       </c>
       <c r="S38" t="n">
-        <v>4572.788810426035</v>
+        <v>4644.145521276387</v>
       </c>
       <c r="T38" t="n">
-        <v>4376.476273716888</v>
+        <v>4504.366251503548</v>
       </c>
       <c r="U38" t="n">
-        <v>4194.208239733573</v>
+        <v>4250.741506669881</v>
       </c>
       <c r="V38" t="n">
-        <v>3863.145352390003</v>
+        <v>3934.502063240356</v>
       </c>
       <c r="W38" t="n">
-        <v>3510.376697119889</v>
+        <v>3581.733407970241</v>
       </c>
       <c r="X38" t="n">
-        <v>3136.910938858809</v>
+        <v>3208.267649709162</v>
       </c>
       <c r="Y38" t="n">
-        <v>2746.771606882997</v>
+        <v>2818.12831773335</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I39" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J39" t="n">
         <v>254.3254551313248</v>
       </c>
       <c r="K39" t="n">
-        <v>379.6830151891622</v>
+        <v>654.6285586383409</v>
       </c>
       <c r="L39" t="n">
-        <v>389.3429727401002</v>
+        <v>1254.289878061613</v>
       </c>
       <c r="M39" t="n">
-        <v>389.3429727401002</v>
+        <v>2006.045575271708</v>
       </c>
       <c r="N39" t="n">
-        <v>1176.702419723913</v>
+        <v>2376.334367976047</v>
       </c>
       <c r="O39" t="n">
-        <v>1830.566812309317</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="P39" t="n">
-        <v>2338.347565384828</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="Q39" t="n">
         <v>2625.087782060009</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>640.9267044762032</v>
+        <v>640.9267044762029</v>
       </c>
       <c r="C40" t="n">
-        <v>543.3472323986487</v>
+        <v>543.3472323986483</v>
       </c>
       <c r="D40" t="n">
-        <v>464.5873038366652</v>
+        <v>464.5873038366649</v>
       </c>
       <c r="E40" t="n">
-        <v>388.0309211046244</v>
+        <v>388.0309211046241</v>
       </c>
       <c r="F40" t="n">
-        <v>312.4976844570663</v>
+        <v>312.497684457066</v>
       </c>
       <c r="G40" t="n">
-        <v>215.6229908355099</v>
+        <v>215.6229908355097</v>
       </c>
       <c r="H40" t="n">
-        <v>136.0630662309763</v>
+        <v>136.0630662309759</v>
       </c>
       <c r="I40" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J40" t="n">
-        <v>172.6318791581558</v>
+        <v>172.6318791581559</v>
       </c>
       <c r="K40" t="n">
         <v>386.3678594295426</v>
@@ -7354,7 +7354,7 @@
         <v>2000.899469352691</v>
       </c>
       <c r="R40" t="n">
-        <v>1958.659390511295</v>
+        <v>1958.659390511296</v>
       </c>
       <c r="S40" t="n">
         <v>1829.118721170427</v>
@@ -7366,16 +7366,16 @@
         <v>1458.675403339076</v>
       </c>
       <c r="V40" t="n">
-        <v>1275.347625983542</v>
+        <v>1275.347625983541</v>
       </c>
       <c r="W40" t="n">
         <v>1057.287166796933</v>
       </c>
       <c r="X40" t="n">
-        <v>900.6543267492684</v>
+        <v>900.6543267492681</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.2184584560906</v>
+        <v>751.2184584560903</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>181.623912144667</v>
       </c>
       <c r="I41" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J41" t="n">
-        <v>352.4625266553642</v>
+        <v>352.4625266553641</v>
       </c>
       <c r="K41" t="n">
-        <v>860.2779741677793</v>
+        <v>860.2779741677795</v>
       </c>
       <c r="L41" t="n">
         <v>1542.544568462677</v>
@@ -7427,34 +7427,34 @@
         <v>3777.360983129466</v>
       </c>
       <c r="P41" t="n">
-        <v>4324.639697485003</v>
+        <v>4324.639697485001</v>
       </c>
       <c r="Q41" t="n">
-        <v>4658.401460222604</v>
+        <v>4658.401460222603</v>
       </c>
       <c r="R41" t="n">
-        <v>4709.931160145416</v>
+        <v>4709.931160145414</v>
       </c>
       <c r="S41" t="n">
-        <v>4572.788810426036</v>
+        <v>4572.788810426034</v>
       </c>
       <c r="T41" t="n">
-        <v>4361.652829802843</v>
+        <v>4361.652829802842</v>
       </c>
       <c r="U41" t="n">
-        <v>4108.028084969177</v>
+        <v>4122.851528883221</v>
       </c>
       <c r="V41" t="n">
-        <v>3776.965197625606</v>
+        <v>3791.788641539651</v>
       </c>
       <c r="W41" t="n">
-        <v>3495.553253205845</v>
+        <v>3510.376697119889</v>
       </c>
       <c r="X41" t="n">
-        <v>3122.087494944765</v>
+        <v>3208.267649709162</v>
       </c>
       <c r="Y41" t="n">
-        <v>2803.304873819306</v>
+        <v>2818.12831773335</v>
       </c>
     </row>
     <row r="42">
@@ -7485,13 +7485,13 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I42" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J42" t="n">
-        <v>254.3254551313249</v>
+        <v>254.3254551313248</v>
       </c>
       <c r="K42" t="n">
-        <v>654.628558638341</v>
+        <v>654.6285586383409</v>
       </c>
       <c r="L42" t="n">
         <v>1254.289878061613</v>
@@ -7543,55 +7543,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>640.9267044762031</v>
+        <v>640.9267044762032</v>
       </c>
       <c r="C43" t="n">
-        <v>543.3472323986485</v>
+        <v>543.3472323986487</v>
       </c>
       <c r="D43" t="n">
-        <v>464.5873038366651</v>
+        <v>464.5873038366652</v>
       </c>
       <c r="E43" t="n">
-        <v>388.0309211046243</v>
+        <v>388.0309211046244</v>
       </c>
       <c r="F43" t="n">
-        <v>312.4976844570663</v>
+        <v>312.4976844570664</v>
       </c>
       <c r="G43" t="n">
-        <v>215.6229908355099</v>
+        <v>215.6229908355101</v>
       </c>
       <c r="H43" t="n">
-        <v>136.0630662309764</v>
+        <v>136.0630662309763</v>
       </c>
       <c r="I43" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J43" t="n">
-        <v>172.6318791581558</v>
+        <v>172.6318791581559</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3678594295426</v>
+        <v>386.3678594295427</v>
       </c>
       <c r="L43" t="n">
-        <v>695.8445609794708</v>
+        <v>695.8445609794709</v>
       </c>
       <c r="M43" t="n">
         <v>1028.731729052993</v>
       </c>
       <c r="N43" t="n">
-        <v>1360.801139433345</v>
+        <v>1360.801139433346</v>
       </c>
       <c r="O43" t="n">
         <v>1656.843530303034</v>
       </c>
       <c r="P43" t="n">
-        <v>1896.732029354154</v>
+        <v>1896.732029354155</v>
       </c>
       <c r="Q43" t="n">
         <v>2000.899469352691</v>
       </c>
       <c r="R43" t="n">
-        <v>1958.659390511295</v>
+        <v>1958.659390511296</v>
       </c>
       <c r="S43" t="n">
         <v>1829.118721170427</v>
@@ -7612,7 +7612,7 @@
         <v>900.6543267492682</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.2184584560905</v>
+        <v>751.2184584560906</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2360.171766818875</v>
+        <v>2416.705033755182</v>
       </c>
       <c r="C44" t="n">
-        <v>1991.209249878464</v>
+        <v>2047.74251681477</v>
       </c>
       <c r="D44" t="n">
-        <v>1632.943551271713</v>
+        <v>1704.300262122066</v>
       </c>
       <c r="E44" t="n">
-        <v>1247.155298673469</v>
+        <v>1318.512009523821</v>
       </c>
       <c r="F44" t="n">
-        <v>836.1693938838614</v>
+        <v>907.5261047342137</v>
       </c>
       <c r="G44" t="n">
         <v>491.2753032354263</v>
@@ -7643,55 +7643,55 @@
         <v>181.623912144667</v>
       </c>
       <c r="I44" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J44" t="n">
-        <v>352.4625266553649</v>
+        <v>352.4625266553641</v>
       </c>
       <c r="K44" t="n">
-        <v>860.27797416778</v>
+        <v>860.2779741677792</v>
       </c>
       <c r="L44" t="n">
         <v>1542.544568462677</v>
       </c>
       <c r="M44" t="n">
-        <v>2318.304158787662</v>
+        <v>2318.304158787661</v>
       </c>
       <c r="N44" t="n">
-        <v>3091.984352769974</v>
+        <v>3091.984352769973</v>
       </c>
       <c r="O44" t="n">
-        <v>3777.360983129468</v>
+        <v>3777.360983129466</v>
       </c>
       <c r="P44" t="n">
-        <v>4324.639697485002</v>
+        <v>4324.639697485001</v>
       </c>
       <c r="Q44" t="n">
-        <v>4658.401460222604</v>
+        <v>4658.401460222603</v>
       </c>
       <c r="R44" t="n">
-        <v>4709.931160145416</v>
+        <v>4709.931160145414</v>
       </c>
       <c r="S44" t="n">
-        <v>4572.788810426036</v>
+        <v>4572.788810426034</v>
       </c>
       <c r="T44" t="n">
-        <v>4361.652829802843</v>
+        <v>4361.652829802842</v>
       </c>
       <c r="U44" t="n">
-        <v>4108.028084969177</v>
+        <v>4108.028084969175</v>
       </c>
       <c r="V44" t="n">
-        <v>3776.965197625606</v>
+        <v>3776.965197625605</v>
       </c>
       <c r="W44" t="n">
-        <v>3439.019986269536</v>
+        <v>3495.553253205843</v>
       </c>
       <c r="X44" t="n">
-        <v>3136.910938858809</v>
+        <v>3122.087494944763</v>
       </c>
       <c r="Y44" t="n">
-        <v>2746.771606882997</v>
+        <v>2731.948162968951</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I45" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J45" t="n">
-        <v>254.3254551313249</v>
+        <v>254.3254551313248</v>
       </c>
       <c r="K45" t="n">
-        <v>389.3429727401002</v>
+        <v>654.6285586383409</v>
       </c>
       <c r="L45" t="n">
-        <v>389.3429727401002</v>
+        <v>1254.289878061613</v>
       </c>
       <c r="M45" t="n">
-        <v>389.3429727401002</v>
+        <v>2006.045575271708</v>
       </c>
       <c r="N45" t="n">
-        <v>1176.702419723913</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="O45" t="n">
-        <v>1830.566812309317</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="P45" t="n">
-        <v>2338.347565384828</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="Q45" t="n">
         <v>2625.087782060009</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>640.9267044762025</v>
+        <v>640.926704476203</v>
       </c>
       <c r="C46" t="n">
-        <v>543.347232398648</v>
+        <v>543.3472323986484</v>
       </c>
       <c r="D46" t="n">
-        <v>464.5873038366645</v>
+        <v>464.587303836665</v>
       </c>
       <c r="E46" t="n">
-        <v>388.0309211046238</v>
+        <v>388.0309211046242</v>
       </c>
       <c r="F46" t="n">
-        <v>312.4976844570658</v>
+        <v>312.4976844570662</v>
       </c>
       <c r="G46" t="n">
-        <v>215.6229908355095</v>
+        <v>215.6229908355099</v>
       </c>
       <c r="H46" t="n">
-        <v>136.0630662309757</v>
+        <v>136.0630662309763</v>
       </c>
       <c r="I46" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J46" t="n">
-        <v>172.631879158156</v>
+        <v>172.6318791581559</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3678594295428</v>
+        <v>386.3678594295426</v>
       </c>
       <c r="L46" t="n">
-        <v>695.844560979471</v>
+        <v>695.8445609794708</v>
       </c>
       <c r="M46" t="n">
-        <v>1028.731729052992</v>
+        <v>1028.731729052993</v>
       </c>
       <c r="N46" t="n">
-        <v>1360.801139433345</v>
+        <v>1360.801139433346</v>
       </c>
       <c r="O46" t="n">
         <v>1656.843530303034</v>
@@ -7849,7 +7849,7 @@
         <v>900.6543267492682</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.2184584560899</v>
+        <v>751.2184584560904</v>
       </c>
     </row>
   </sheetData>
@@ -8061,16 +8061,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>405.3760678736849</v>
+        <v>307.730455563954</v>
       </c>
       <c r="N3" t="n">
-        <v>237.5352348346074</v>
+        <v>394.5837460349999</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1557733991271</v>
       </c>
       <c r="K6" t="n">
-        <v>93.9470611947293</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.3777966364762</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>455.5401165541734</v>
+        <v>154.5756412552428</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>105.283075905878</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8775,22 +8775,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>380.7624422903937</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>38.89612811715145</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>38.89612811715145</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729823</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9963,13 +9963,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10440,7 +10440,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10449,7 +10449,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>38.89612811715145</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119851</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -10680,10 +10680,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,10 +10905,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>148.3119126596095</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11160,7 +11160,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>38.89612811715143</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11379,22 +11379,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.742195080722396e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>156.8493879680543</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>138.2180398876389</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>136.0365295159957</v>
       </c>
       <c r="F13" t="n">
         <v>135.0236148923578</v>
@@ -23434,7 +23434,7 @@
         <v>139.0100359697638</v>
       </c>
       <c r="I13" t="n">
-        <v>101.6915092090627</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>102.0633886642565</v>
       </c>
       <c r="S13" t="n">
         <v>188.4909732587351</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.1255652060175</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.9696339699825</v>
+        <v>8.619362349117479</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>169.4345470513639</v>
       </c>
       <c r="C16" t="n">
-        <v>156.8493879680544</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>138.2180398876389</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G16" t="n">
         <v>156.1516572966162</v>
       </c>
       <c r="H16" t="n">
-        <v>139.0100359697638</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>101.6915092090627</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>102.0633886642566</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>188.4909732587351</v>
       </c>
       <c r="T16" t="n">
-        <v>151.1667485486801</v>
+        <v>211.3873581368307</v>
       </c>
       <c r="U16" t="n">
         <v>275.8429477387573</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>59.6934106147378</v>
       </c>
       <c r="X16" t="n">
-        <v>215.3122222584637</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>138.2180398876389</v>
       </c>
       <c r="E19" t="n">
-        <v>136.0365295159957</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>135.0236148923578</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.0633886642565</v>
+        <v>102.0633886642566</v>
       </c>
       <c r="S19" t="n">
         <v>188.4909732587351</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>33.87487718253825</v>
       </c>
       <c r="U19" t="n">
-        <v>70.44174256694436</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>241.7402101932545</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.1255652060175</v>
       </c>
       <c r="X19" t="n">
         <v>215.3122222584637</v>
@@ -24139,7 +24139,7 @@
         <v>135.0236148923578</v>
       </c>
       <c r="G22" t="n">
-        <v>146.7595801555336</v>
+        <v>101.1664740785628</v>
       </c>
       <c r="H22" t="n">
         <v>139.0100359697638</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.0633886642565</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>188.4909732587351</v>
@@ -24181,7 +24181,7 @@
         <v>211.3873581368306</v>
       </c>
       <c r="U22" t="n">
-        <v>275.8429477387573</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>215.3122222584637</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>208.1872202215213</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>138.2180398876388</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>82.70468021216399</v>
+        <v>136.0365295159957</v>
       </c>
       <c r="F25" t="n">
-        <v>135.0236148923577</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>156.1516572966161</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>139.0100359697638</v>
       </c>
       <c r="I25" t="n">
-        <v>101.6915092090626</v>
+        <v>101.6915092090627</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.0633886642566</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>188.4909732587351</v>
       </c>
       <c r="T25" t="n">
         <v>211.3873581368306</v>
       </c>
       <c r="U25" t="n">
-        <v>275.8429477387572</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>276.1255652060175</v>
       </c>
       <c r="X25" t="n">
-        <v>215.3122222584636</v>
+        <v>125.3489202840157</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>169.4345470513638</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>156.8493879680543</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>138.2180398876389</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>136.0365295159957</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>156.1516572966161</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>101.6915092090626</v>
+        <v>101.6915092090627</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>102.0633886642565</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>188.4909732587351</v>
       </c>
       <c r="T28" t="n">
-        <v>211.3873581368306</v>
+        <v>202.5046596106122</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>276.1255652060175</v>
       </c>
       <c r="X28" t="n">
-        <v>210.5669610841849</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>208.1872202215213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>169.4345470513638</v>
       </c>
       <c r="C31" t="n">
-        <v>150.4893948327152</v>
+        <v>156.8493879680543</v>
       </c>
       <c r="D31" t="n">
-        <v>138.2180398876388</v>
+        <v>138.2180398876389</v>
       </c>
       <c r="E31" t="n">
-        <v>136.0365295159956</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>135.0236148923577</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>156.151657296616</v>
+        <v>16.00994803800447</v>
       </c>
       <c r="H31" t="n">
-        <v>139.0100359697637</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>101.6915092090626</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>102.0633886642565</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>188.4909732587351</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>241.7402101932545</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>215.3122222584637</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.1872202215212</v>
+        <v>208.1872202215213</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1081534.337624528</v>
+        <v>1081534.337624527</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1081534.337624528</v>
+        <v>1081534.337624527</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1081534.337624527</v>
+        <v>1081534.337624528</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1081534.337624528</v>
+        <v>1081534.337624527</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="C2" t="n">
         <v>307890.6636991059</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
-        <v>294963.9102612349</v>
+        <v>294963.9102612351</v>
       </c>
       <c r="F2" t="n">
+        <v>294963.9102612351</v>
+      </c>
+      <c r="G2" t="n">
         <v>294963.910261235</v>
       </c>
-      <c r="G2" t="n">
-        <v>294963.9102612352</v>
-      </c>
       <c r="H2" t="n">
+        <v>294963.9102612351</v>
+      </c>
+      <c r="I2" t="n">
         <v>294963.910261235</v>
-      </c>
-      <c r="I2" t="n">
-        <v>294963.9102612349</v>
       </c>
       <c r="J2" t="n">
         <v>294963.910261235</v>
       </c>
       <c r="K2" t="n">
-        <v>294963.910261235</v>
+        <v>294963.9102612351</v>
       </c>
       <c r="L2" t="n">
         <v>307890.6636991058</v>
       </c>
       <c r="M2" t="n">
+        <v>307890.6636991056</v>
+      </c>
+      <c r="N2" t="n">
+        <v>307890.6636991056</v>
+      </c>
+      <c r="O2" t="n">
         <v>307890.6636991058</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>307890.6636991058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>307890.6636991059</v>
-      </c>
-      <c r="P2" t="n">
-        <v>307890.6636991057</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26366,10 @@
         <v>110394.4548749495</v>
       </c>
       <c r="C3" t="n">
-        <v>132580.7637698208</v>
+        <v>132580.7637698212</v>
       </c>
       <c r="D3" t="n">
-        <v>305980.1692436693</v>
+        <v>305980.1692436689</v>
       </c>
       <c r="E3" t="n">
         <v>497476.0416545635</v>
@@ -26378,22 +26378,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.689582056016661e-11</v>
+        <v>2.700062395888381e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>77193.64523570858</v>
+        <v>77193.64523570871</v>
       </c>
       <c r="K3" t="n">
-        <v>30636.89311622927</v>
+        <v>30636.8931162293</v>
       </c>
       <c r="L3" t="n">
-        <v>122100.6567693015</v>
+        <v>122100.6567693014</v>
       </c>
       <c r="M3" t="n">
         <v>125398.3356886932</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8317.946504458789</v>
+        <v>8317.946504458829</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>270946.5259153379</v>
       </c>
       <c r="C4" t="n">
-        <v>232578.3932186805</v>
+        <v>232578.3932186803</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>11275.34671210836</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11275.3467121083</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11275.34671210834</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11275.34671210834</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11275.34671210835</v>
+      </c>
+      <c r="J4" t="n">
         <v>11275.34671210837</v>
       </c>
-      <c r="F4" t="n">
-        <v>11275.34671210831</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11275.34671210837</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11275.34671210837</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11275.34671210834</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11275.3467121084</v>
-      </c>
       <c r="K4" t="n">
-        <v>11275.34671210843</v>
+        <v>11275.34671210836</v>
       </c>
       <c r="L4" t="n">
-        <v>31099.18787997222</v>
+        <v>31099.18787997217</v>
       </c>
       <c r="M4" t="n">
-        <v>31099.1878799722</v>
+        <v>31099.18787997216</v>
       </c>
       <c r="N4" t="n">
-        <v>31099.18787997216</v>
+        <v>31099.18787997217</v>
       </c>
       <c r="O4" t="n">
-        <v>31099.18787997213</v>
+        <v>31099.18787997224</v>
       </c>
       <c r="P4" t="n">
-        <v>31099.18787997215</v>
+        <v>31099.18787997223</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>50134.40740683334</v>
       </c>
       <c r="C5" t="n">
-        <v>59625.30989075377</v>
+        <v>59625.30989075379</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>89896.18181098945</v>
+      </c>
+      <c r="F5" t="n">
+        <v>89896.18181098945</v>
+      </c>
+      <c r="G5" t="n">
+        <v>89896.18181098945</v>
+      </c>
+      <c r="H5" t="n">
+        <v>89896.18181098945</v>
+      </c>
+      <c r="I5" t="n">
+        <v>89896.18181098945</v>
+      </c>
+      <c r="J5" t="n">
         <v>89896.18181098947</v>
       </c>
-      <c r="F5" t="n">
+      <c r="K5" t="n">
         <v>89896.18181098947</v>
       </c>
-      <c r="G5" t="n">
-        <v>89896.18181098947</v>
-      </c>
-      <c r="H5" t="n">
-        <v>89896.18181098947</v>
-      </c>
-      <c r="I5" t="n">
-        <v>89896.18181098948</v>
-      </c>
-      <c r="J5" t="n">
-        <v>89896.18181098945</v>
-      </c>
-      <c r="K5" t="n">
-        <v>89896.18181098948</v>
-      </c>
       <c r="L5" t="n">
-        <v>94960.97845636879</v>
+        <v>94960.97845636877</v>
       </c>
       <c r="M5" t="n">
-        <v>94960.97845636879</v>
+        <v>94960.97845636877</v>
       </c>
       <c r="N5" t="n">
-        <v>94960.97845636879</v>
+        <v>94960.97845636876</v>
       </c>
       <c r="O5" t="n">
-        <v>94960.97845636879</v>
+        <v>94960.97845636876</v>
       </c>
       <c r="P5" t="n">
-        <v>94960.97845636879</v>
+        <v>94960.97845636876</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123584.7244980145</v>
+        <v>-123584.7244980146</v>
       </c>
       <c r="C6" t="n">
-        <v>-116893.8031801491</v>
+        <v>-116893.8031801494</v>
       </c>
       <c r="D6" t="n">
-        <v>-220007.7227885913</v>
+        <v>-220007.7227885911</v>
       </c>
       <c r="E6" t="n">
-        <v>-303683.6599164265</v>
+        <v>-303769.8382726787</v>
       </c>
       <c r="F6" t="n">
-        <v>193792.3817381373</v>
+        <v>193706.2033818849</v>
       </c>
       <c r="G6" t="n">
-        <v>193792.3817381373</v>
+        <v>193706.2033818848</v>
       </c>
       <c r="H6" t="n">
-        <v>193792.3817381372</v>
+        <v>193706.203381885</v>
       </c>
       <c r="I6" t="n">
-        <v>193792.3817381371</v>
+        <v>193706.2033818846</v>
       </c>
       <c r="J6" t="n">
-        <v>116598.7365024285</v>
+        <v>116512.558146176</v>
       </c>
       <c r="K6" t="n">
-        <v>163155.4886219078</v>
+        <v>163069.3102656555</v>
       </c>
       <c r="L6" t="n">
-        <v>59729.84059346333</v>
+        <v>59729.84059346341</v>
       </c>
       <c r="M6" t="n">
-        <v>56432.1616740716</v>
+        <v>56432.16167407153</v>
       </c>
       <c r="N6" t="n">
-        <v>181830.4973627648</v>
+        <v>181830.4973627647</v>
       </c>
       <c r="O6" t="n">
-        <v>173512.5508583062</v>
+        <v>173512.550858306</v>
       </c>
       <c r="P6" t="n">
         <v>181830.4973627648</v>
@@ -26695,34 +26695,34 @@
         <v>10.39743313057348</v>
       </c>
       <c r="F2" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="G2" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="H2" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="I2" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="J2" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="K2" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="L2" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="M2" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="N2" t="n">
         <v>70.64314374184879</v>
       </c>
       <c r="O2" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="P2" t="n">
         <v>70.64314374184882</v>
@@ -26738,7 +26738,7 @@
         <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
-        <v>126.3765120634692</v>
+        <v>126.3765120634695</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26753,7 +26753,7 @@
         <v>799.5929527947245</v>
       </c>
       <c r="H3" t="n">
-        <v>799.5929527947245</v>
+        <v>799.5929527947243</v>
       </c>
       <c r="I3" t="n">
         <v>799.5929527947245</v>
@@ -26768,16 +26768,16 @@
         <v>799.5929527947245</v>
       </c>
       <c r="M3" t="n">
-        <v>799.5929527947246</v>
+        <v>799.5929527947245</v>
       </c>
       <c r="N3" t="n">
-        <v>799.5929527947246</v>
+        <v>799.5929527947245</v>
       </c>
       <c r="O3" t="n">
-        <v>799.5929527947246</v>
+        <v>799.5929527947245</v>
       </c>
       <c r="P3" t="n">
-        <v>799.5929527947246</v>
+        <v>799.5929527947245</v>
       </c>
     </row>
     <row r="4">
@@ -26790,28 +26790,28 @@
         <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>382.2812817067457</v>
+        <v>382.2812817067461</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
+        <v>1177.482790036353</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1177.482790036353</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1177.482790036353</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1177.482790036353</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1177.482790036353</v>
+      </c>
+      <c r="J4" t="n">
         <v>1177.482790036354</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1177.482790036354</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1177.482790036354</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1177.482790036354</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1177.482790036354</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1177.482790036353</v>
       </c>
       <c r="K4" t="n">
         <v>1177.482790036354</v>
@@ -26823,13 +26823,13 @@
         <v>1177.482790036354</v>
       </c>
       <c r="N4" t="n">
-        <v>1177.482790036354</v>
+        <v>1177.482790036353</v>
       </c>
       <c r="O4" t="n">
-        <v>1177.482790036354</v>
+        <v>1177.482790036353</v>
       </c>
       <c r="P4" t="n">
-        <v>1177.482790036354</v>
+        <v>1177.482790036353</v>
       </c>
     </row>
   </sheetData>
@@ -26920,22 +26920,22 @@
         <v>-5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>5.861977570020827e-14</v>
+        <v>3.375077994860476e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60.24571061127534</v>
+        <v>60.24571061127536</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057354</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
-        <v>103.3631293766799</v>
+        <v>103.3631293766802</v>
       </c>
       <c r="D3" t="n">
-        <v>251.3671521536174</v>
+        <v>251.3671521536171</v>
       </c>
       <c r="E3" t="n">
         <v>421.8492885776379</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>119.0392477550792</v>
+        <v>119.0392477550795</v>
       </c>
       <c r="D4" t="n">
-        <v>292.0059910478099</v>
+        <v>292.0059910478095</v>
       </c>
       <c r="E4" t="n">
-        <v>503.1955172817981</v>
+        <v>503.1955172817978</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516664</v>
+        <v>263.2420339516668</v>
       </c>
       <c r="K4" t="n">
-        <v>119.0392477550794</v>
+        <v>119.0392477550795</v>
       </c>
       <c r="L4" t="n">
-        <v>292.0059910478099</v>
+        <v>292.0059910478095</v>
       </c>
       <c r="M4" t="n">
-        <v>503.1955172817981</v>
+        <v>503.1955172817978</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.861977570020827e-14</v>
+        <v>3.375077994860476e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>119.0392477550792</v>
+        <v>119.0392477550795</v>
       </c>
       <c r="L4" t="n">
-        <v>292.0059910478099</v>
+        <v>292.0059910478095</v>
       </c>
       <c r="M4" t="n">
-        <v>503.1955172817981</v>
+        <v>503.1955172817978</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>377.0867418049071</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.6883361205952</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>143.6340117900448</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H2" t="n">
-        <v>75.28528753921178</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
@@ -27433,7 +27433,7 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>274.1184376584289</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>97.08446202703756</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
         <v>225.9381254702172</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>144.8378927772123</v>
       </c>
       <c r="Y3" t="n">
-        <v>90.98279468655835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>212.3085489286314</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>58.74958424511985</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>347.8662483594729</v>
       </c>
       <c r="G5" t="n">
-        <v>32.51340952873716</v>
+        <v>32.51340952873682</v>
       </c>
       <c r="H5" t="n">
         <v>334.2717731542797</v>
       </c>
       <c r="I5" t="n">
-        <v>190.8894353741169</v>
+        <v>190.8894353741168</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>117.9555558269511</v>
+        <v>117.955555826951</v>
       </c>
       <c r="S5" t="n">
-        <v>197.4429649886723</v>
+        <v>197.4429649886722</v>
       </c>
       <c r="T5" t="n">
         <v>220.8718769749541</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3050092054643</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>236.1682275035787</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133.6734525277954</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.0716884391496</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.6101510330648</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.03761757124303</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>83.28060863594058</v>
+        <v>1.550416295238591</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.7630872875246</v>
@@ -27795,7 +27795,7 @@
         <v>148.5971388304393</v>
       </c>
       <c r="J7" t="n">
-        <v>77.24721070163015</v>
+        <v>77.24721070163011</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.48877586496502</v>
       </c>
       <c r="R7" t="n">
-        <v>167.0465351695315</v>
+        <v>167.0465351695314</v>
       </c>
       <c r="S7" t="n">
-        <v>218.4691843498052</v>
+        <v>220.0450607644203</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>226.9718687615629</v>
       </c>
       <c r="U7" t="n">
         <v>286.3065988798945</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>214.41963074082</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>115.8225608688524</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>13.43676775329513</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28059,7 +28059,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>167.9697433236063</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="C14" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="D14" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="E14" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="F14" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="G14" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="H14" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="I14" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="T14" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="U14" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="V14" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="W14" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="X14" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="C16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="D16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="E16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="F16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="G16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="H16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="I16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="J16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="K16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="L16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="M16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="N16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="O16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="P16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="R16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="S16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="T16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="U16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="V16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="W16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="X16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057342</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="C17" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="D17" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="E17" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="F17" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="G17" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="H17" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="I17" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="T17" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="U17" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="V17" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="W17" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="X17" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="C19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="D19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="E19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="F19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="G19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="H19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="I19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="J19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="K19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="L19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="M19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="N19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="O19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="P19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="R19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="S19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="T19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="U19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="V19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="W19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="X19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="C20" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="D20" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="E20" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="F20" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="G20" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="H20" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="I20" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="T20" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="U20" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="V20" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="W20" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="X20" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="Y20" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057363</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="C22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="D22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="E22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="F22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="G22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="H22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="I22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="J22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="K22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="L22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="M22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="N22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="O22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="P22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="R22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="S22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="T22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="U22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="V22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="W22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="X22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.39743313057349</v>
+        <v>10.39743313057345</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="C23" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="D23" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="E23" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="F23" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="G23" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="H23" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="I23" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="T23" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="U23" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057375</v>
       </c>
       <c r="V23" t="n">
-        <v>10.39743313057215</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="W23" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="X23" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="Y23" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="C25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="D25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="E25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="F25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="G25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="H25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="I25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="J25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="K25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="L25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="M25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="N25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="O25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="P25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="R25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="S25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="T25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="U25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="V25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="W25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="X25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057345</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="C26" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="D26" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="E26" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="F26" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="G26" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="H26" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="I26" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="T26" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="U26" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="V26" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="W26" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="X26" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="Y26" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="C28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="D28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="E28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="F28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="G28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="H28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="I28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="J28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="K28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="L28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="M28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="N28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="O28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="P28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="Q28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="R28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="S28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="T28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="U28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="V28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="W28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="X28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057348</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="C29" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="D29" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="E29" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="F29" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="G29" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="H29" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="I29" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="T29" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="U29" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="V29" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="W29" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="X29" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="C31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="D31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="E31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="F31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="G31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="H31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="I31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="J31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="K31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="L31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="M31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="N31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="O31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="P31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="Q31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="R31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="S31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="T31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="U31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="V31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="W31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="X31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.39743313057355</v>
+        <v>10.39743313057348</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>14.67520947490499</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>70.64314374184883</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>14.67520947490439</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29803,13 +29803,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>70.64314374184883</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="C34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="D34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="E34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="F34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="G34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="H34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="I34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="J34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="K34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="L34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="M34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="N34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="O34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="P34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="R34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="S34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="T34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="U34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="V34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="W34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="X34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="Y34" t="n">
-        <v>70.64314374184883</v>
+        <v>70.6431437418488</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,22 +30034,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>70.64314374184882</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="U35" t="n">
-        <v>70.64314374184882</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>14.67520947490408</v>
       </c>
       <c r="X35" t="n">
-        <v>14.6752094749047</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="C37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="D37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="E37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="F37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="G37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="H37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="I37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="J37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="K37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="L37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="M37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="N37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="O37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="P37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="R37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="S37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="T37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="U37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="V37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="W37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="X37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="Y37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
     </row>
     <row r="38">
@@ -30232,55 +30232,55 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
         <v>70.64314374184879</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
       <c r="T38" t="n">
-        <v>14.67520947490434</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="U38" t="n">
-        <v>70.64314374184879</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>14.67520947490453</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>14.67520947490362</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30514,19 +30514,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>14.67520947490567</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="Y41" t="n">
-        <v>70.64314374184879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="C43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="D43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="E43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="F43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="G43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="H43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="I43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="J43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="K43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="L43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="M43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="N43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="O43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="P43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="R43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="S43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="T43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="U43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="V43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="W43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="X43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="Y43" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184882</v>
       </c>
     </row>
     <row r="44">
@@ -30694,13 +30694,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>14.67520947490539</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -30709,58 +30709,58 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>70.64314374184882</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>14.67520947490362</v>
-      </c>
       <c r="X44" t="n">
-        <v>70.64314374184882</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -31139,16 +31139,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>3.073372125605572</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5080462796521373</v>
+        <v>0.5080462796521384</v>
       </c>
       <c r="H5" t="n">
-        <v>5.203028961487452</v>
+        <v>5.203028961487465</v>
       </c>
       <c r="I5" t="n">
-        <v>19.58645419628904</v>
+        <v>19.58645419628909</v>
       </c>
       <c r="J5" t="n">
-        <v>43.11979292762562</v>
+        <v>43.11979292762573</v>
       </c>
       <c r="K5" t="n">
-        <v>64.62539194530061</v>
+        <v>64.62539194530076</v>
       </c>
       <c r="L5" t="n">
-        <v>80.17351327620473</v>
+        <v>80.17351327620491</v>
       </c>
       <c r="M5" t="n">
-        <v>89.20848130196842</v>
+        <v>89.20848130196863</v>
       </c>
       <c r="N5" t="n">
-        <v>90.65196779403006</v>
+        <v>90.65196779403027</v>
       </c>
       <c r="O5" t="n">
-        <v>85.60008260073911</v>
+        <v>85.60008260073931</v>
       </c>
       <c r="P5" t="n">
-        <v>73.05769007182697</v>
+        <v>73.05769007182714</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.86328268178478</v>
+        <v>54.86328268178491</v>
       </c>
       <c r="R5" t="n">
-        <v>31.9135621141986</v>
+        <v>31.91356211419867</v>
       </c>
       <c r="S5" t="n">
-        <v>11.57710459757309</v>
+        <v>11.57710459757312</v>
       </c>
       <c r="T5" t="n">
-        <v>2.223972589177232</v>
+        <v>2.223972589177238</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04064370237217098</v>
+        <v>0.04064370237217107</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2718287240610471</v>
+        <v>0.2718287240610477</v>
       </c>
       <c r="H6" t="n">
-        <v>2.625293203431692</v>
+        <v>2.625293203431698</v>
       </c>
       <c r="I6" t="n">
-        <v>9.359015280172017</v>
+        <v>9.359015280172038</v>
       </c>
       <c r="J6" t="n">
-        <v>25.68185326753954</v>
+        <v>25.6818532675396</v>
       </c>
       <c r="K6" t="n">
-        <v>43.89437777962969</v>
+        <v>43.8943777796298</v>
       </c>
       <c r="L6" t="n">
-        <v>59.02140782737779</v>
+        <v>59.02140782737793</v>
       </c>
       <c r="M6" t="n">
-        <v>68.87519907459072</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>34.28061944652552</v>
+        <v>34.28061944652586</v>
       </c>
       <c r="O6" t="n">
-        <v>64.67496839534921</v>
+        <v>64.67496839534937</v>
       </c>
       <c r="P6" t="n">
-        <v>51.90736398320118</v>
+        <v>51.9073639832013</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.69869818014349</v>
+        <v>34.69869818014357</v>
       </c>
       <c r="R6" t="n">
-        <v>16.87722551670256</v>
+        <v>16.8772255167026</v>
       </c>
       <c r="S6" t="n">
-        <v>5.049099326309358</v>
+        <v>5.04909932630937</v>
       </c>
       <c r="T6" t="n">
-        <v>1.09566051496536</v>
+        <v>1.095660514965363</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01788346868822679</v>
+        <v>0.01788346868822683</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2278920709341248</v>
+        <v>0.2278920709341254</v>
       </c>
       <c r="H7" t="n">
-        <v>2.026167685214312</v>
+        <v>2.026167685214316</v>
       </c>
       <c r="I7" t="n">
-        <v>6.853336096818957</v>
+        <v>6.853336096818973</v>
       </c>
       <c r="J7" t="n">
-        <v>16.11196941504263</v>
+        <v>16.11196941504267</v>
       </c>
       <c r="K7" t="n">
-        <v>26.4769151503465</v>
+        <v>26.47691515034656</v>
       </c>
       <c r="L7" t="n">
-        <v>33.88133570960617</v>
+        <v>33.88133570960625</v>
       </c>
       <c r="M7" t="n">
-        <v>35.72311799197377</v>
+        <v>35.72311799197385</v>
       </c>
       <c r="N7" t="n">
-        <v>34.87370209121933</v>
+        <v>34.87370209121941</v>
       </c>
       <c r="O7" t="n">
-        <v>32.21150835348886</v>
+        <v>32.21150835348894</v>
       </c>
       <c r="P7" t="n">
-        <v>27.56251010643269</v>
+        <v>27.56251010643275</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.08285332158385</v>
+        <v>19.0828533215839</v>
       </c>
       <c r="R7" t="n">
-        <v>10.24685620763801</v>
+        <v>10.24685620763804</v>
       </c>
       <c r="S7" t="n">
-        <v>3.971537272551974</v>
+        <v>3.971537272551984</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9737206667185332</v>
+        <v>0.9737206667185355</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01243047659640682</v>
+        <v>0.01243047659640685</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31619,10 +31619,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31841,16 +31841,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>277.7227711607866</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>373.4325389443665</v>
+        <v>36.38157196822914</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>435.7781592731248</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3119104507016</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31859,10 +31859,10 @@
         <v>328.4214903658181</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>219.5410688503553</v>
       </c>
       <c r="R12" t="n">
-        <v>106.7833758468125</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>31.94600146307223</v>
@@ -32078,28 +32078,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>373.4325389443665</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>364.1105409640656</v>
+        <v>435.7781592731248</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>447.3119104507016</v>
       </c>
       <c r="O15" t="n">
-        <v>409.2030085873153</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>137.0322207337016</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>106.7833758468125</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>31.94600146307223</v>
@@ -32318,19 +32318,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>373.4325389443665</v>
       </c>
       <c r="M18" t="n">
         <v>435.7781592731248</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>210.9115922400366</v>
       </c>
       <c r="O18" t="n">
-        <v>409.2030085873153</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>175.1411225970879</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.214444031335574</v>
+        <v>3.214444031335573</v>
       </c>
       <c r="H20" t="n">
-        <v>32.91992493591545</v>
+        <v>32.91992493591544</v>
       </c>
       <c r="I20" t="n">
         <v>123.9248535180648</v>
       </c>
       <c r="J20" t="n">
-        <v>272.8219191045679</v>
+        <v>272.8219191045678</v>
       </c>
       <c r="K20" t="n">
-        <v>408.8893349510028</v>
+        <v>408.8893349510027</v>
       </c>
       <c r="L20" t="n">
-        <v>507.2633764749889</v>
+        <v>507.2633764749888</v>
       </c>
       <c r="M20" t="n">
-        <v>564.4282455172529</v>
+        <v>564.4282455172528</v>
       </c>
       <c r="N20" t="n">
-        <v>573.5612846212852</v>
+        <v>573.561284621285</v>
       </c>
       <c r="O20" t="n">
-        <v>541.597656784692</v>
+        <v>541.5976567846918</v>
       </c>
       <c r="P20" t="n">
-        <v>462.241069761095</v>
+        <v>462.2410697610949</v>
       </c>
       <c r="Q20" t="n">
         <v>347.1237928888896</v>
       </c>
       <c r="R20" t="n">
-        <v>201.9193198833834</v>
+        <v>201.9193198833833</v>
       </c>
       <c r="S20" t="n">
-        <v>73.24914336405945</v>
+        <v>73.24914336405944</v>
       </c>
       <c r="T20" t="n">
         <v>14.07122874717148</v>
@@ -32546,28 +32546,28 @@
         <v>16.6104120948489</v>
       </c>
       <c r="I21" t="n">
-        <v>59.2151384852697</v>
+        <v>59.21513848526968</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>269.4733547122873</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>373.4325389443663</v>
       </c>
       <c r="M21" t="n">
-        <v>435.7781592731248</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>255.9226408185849</v>
+        <v>447.3119104507015</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>328.4214903658181</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32576,10 +32576,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>31.94600146307223</v>
+        <v>31.94600146307222</v>
       </c>
       <c r="T21" t="n">
-        <v>6.932320034135392</v>
+        <v>6.93232003413539</v>
       </c>
       <c r="U21" t="n">
         <v>0.1131499461501969</v>
@@ -32628,7 +32628,7 @@
         <v>43.36153258762211</v>
       </c>
       <c r="J22" t="n">
-        <v>101.9415474407307</v>
+        <v>101.9415474407306</v>
       </c>
       <c r="K22" t="n">
         <v>167.5212776510914</v>
@@ -32637,7 +32637,7 @@
         <v>214.3695598361463</v>
       </c>
       <c r="M22" t="n">
-        <v>226.0226440170399</v>
+        <v>226.0226440170398</v>
       </c>
       <c r="N22" t="n">
         <v>220.648330727764</v>
@@ -32646,22 +32646,22 @@
         <v>203.8044463943013</v>
       </c>
       <c r="P22" t="n">
-        <v>174.38991219641</v>
+        <v>174.3899121964099</v>
       </c>
       <c r="Q22" t="n">
         <v>120.7385358720034</v>
       </c>
       <c r="R22" t="n">
-        <v>64.83256958233945</v>
+        <v>64.83256958233943</v>
       </c>
       <c r="S22" t="n">
-        <v>25.12819164766371</v>
+        <v>25.1281916476637</v>
       </c>
       <c r="T22" t="n">
-        <v>6.160798160877383</v>
+        <v>6.160798160877381</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07864848716013692</v>
+        <v>0.07864848716013689</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,19 +32786,19 @@
         <v>59.2151384852697</v>
       </c>
       <c r="J24" t="n">
-        <v>162.4908660014261</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>277.7227711607866</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>373.4325389443665</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>37.52484596989245</v>
       </c>
       <c r="N24" t="n">
-        <v>179.3466721696506</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>409.2030085873153</v>
@@ -33023,7 +33023,7 @@
         <v>59.2151384852697</v>
       </c>
       <c r="J27" t="n">
-        <v>162.4908660014261</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>277.7227711607866</v>
@@ -33035,10 +33035,10 @@
         <v>435.7781592731248</v>
       </c>
       <c r="N27" t="n">
-        <v>277.2944961118014</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>351.2849969892975</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -33269,10 +33269,10 @@
         <v>373.4325389443665</v>
       </c>
       <c r="M30" t="n">
-        <v>265.7607449342244</v>
+        <v>435.7781592731248</v>
       </c>
       <c r="N30" t="n">
-        <v>447.3119104507016</v>
+        <v>277.2944961118014</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33500,10 +33500,10 @@
         <v>162.4908660014261</v>
       </c>
       <c r="K33" t="n">
-        <v>277.7227711607866</v>
+        <v>229.8718209339679</v>
       </c>
       <c r="L33" t="n">
-        <v>203.4151246054662</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>435.7781592731248</v>
@@ -33521,7 +33521,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>106.7833758468125</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>31.94600146307223</v>
@@ -33658,37 +33658,37 @@
         <v>272.8219191045679</v>
       </c>
       <c r="K35" t="n">
-        <v>408.8893349510029</v>
+        <v>408.8893349510028</v>
       </c>
       <c r="L35" t="n">
-        <v>507.263376474989</v>
+        <v>507.2633764749889</v>
       </c>
       <c r="M35" t="n">
-        <v>564.428245517253</v>
+        <v>564.4282455172529</v>
       </c>
       <c r="N35" t="n">
-        <v>573.5612846212853</v>
+        <v>573.5612846212852</v>
       </c>
       <c r="O35" t="n">
-        <v>541.5976567846922</v>
+        <v>541.597656784692</v>
       </c>
       <c r="P35" t="n">
         <v>462.241069761095</v>
       </c>
       <c r="Q35" t="n">
-        <v>347.1237928888897</v>
+        <v>347.1237928888896</v>
       </c>
       <c r="R35" t="n">
         <v>201.9193198833834</v>
       </c>
       <c r="S35" t="n">
-        <v>73.24914336405946</v>
+        <v>73.24914336405945</v>
       </c>
       <c r="T35" t="n">
         <v>14.07122874717148</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2571555225068459</v>
+        <v>0.2571555225068458</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.719879181482993</v>
+        <v>1.719879181482992</v>
       </c>
       <c r="H36" t="n">
         <v>16.6104120948489</v>
       </c>
       <c r="I36" t="n">
-        <v>59.21513848526971</v>
+        <v>59.2151384852697</v>
       </c>
       <c r="J36" t="n">
-        <v>88.77265896722585</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>277.7227711607866</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>435.7781592731249</v>
+        <v>264.1911582653248</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>447.3119104507016</v>
       </c>
       <c r="O36" t="n">
-        <v>409.2030085873154</v>
+        <v>409.2030085873153</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>328.4214903658181</v>
       </c>
       <c r="Q36" t="n">
-        <v>219.5410688503554</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>106.7833758468125</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>31.94600146307223</v>
       </c>
       <c r="T36" t="n">
-        <v>6.932320034135393</v>
+        <v>6.932320034135392</v>
       </c>
       <c r="U36" t="n">
         <v>0.1131499461501969</v>
@@ -33807,10 +33807,10 @@
         <v>1.441888931269175</v>
       </c>
       <c r="H37" t="n">
-        <v>12.81970340710232</v>
+        <v>12.81970340710231</v>
       </c>
       <c r="I37" t="n">
-        <v>43.36153258762212</v>
+        <v>43.36153258762211</v>
       </c>
       <c r="J37" t="n">
         <v>101.9415474407307</v>
@@ -33819,16 +33819,16 @@
         <v>167.5212776510914</v>
       </c>
       <c r="L37" t="n">
-        <v>214.3695598361464</v>
+        <v>214.3695598361463</v>
       </c>
       <c r="M37" t="n">
         <v>226.0226440170399</v>
       </c>
       <c r="N37" t="n">
-        <v>220.6483307277641</v>
+        <v>220.648330727764</v>
       </c>
       <c r="O37" t="n">
-        <v>203.8044463943014</v>
+        <v>203.8044463943013</v>
       </c>
       <c r="P37" t="n">
         <v>174.38991219641</v>
@@ -33843,10 +33843,10 @@
         <v>25.12819164766371</v>
       </c>
       <c r="T37" t="n">
-        <v>6.160798160877384</v>
+        <v>6.160798160877383</v>
       </c>
       <c r="U37" t="n">
-        <v>0.07864848716013693</v>
+        <v>0.07864848716013692</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33895,37 +33895,37 @@
         <v>272.8219191045679</v>
       </c>
       <c r="K38" t="n">
-        <v>408.8893349510029</v>
+        <v>408.8893349510028</v>
       </c>
       <c r="L38" t="n">
-        <v>507.263376474989</v>
+        <v>507.2633764749889</v>
       </c>
       <c r="M38" t="n">
-        <v>564.428245517253</v>
+        <v>564.4282455172529</v>
       </c>
       <c r="N38" t="n">
-        <v>573.5612846212853</v>
+        <v>573.5612846212852</v>
       </c>
       <c r="O38" t="n">
-        <v>541.5976567846922</v>
+        <v>541.597656784692</v>
       </c>
       <c r="P38" t="n">
         <v>462.241069761095</v>
       </c>
       <c r="Q38" t="n">
-        <v>347.1237928888897</v>
+        <v>347.1237928888896</v>
       </c>
       <c r="R38" t="n">
         <v>201.9193198833834</v>
       </c>
       <c r="S38" t="n">
-        <v>73.24914336405946</v>
+        <v>73.24914336405945</v>
       </c>
       <c r="T38" t="n">
         <v>14.07122874717148</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2571555225068459</v>
+        <v>0.2571555225068458</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,37 +33962,37 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.719879181482993</v>
+        <v>1.719879181482992</v>
       </c>
       <c r="H39" t="n">
         <v>16.6104120948489</v>
       </c>
       <c r="I39" t="n">
-        <v>59.21513848526971</v>
+        <v>59.2151384852697</v>
       </c>
       <c r="J39" t="n">
         <v>162.4908660014261</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>277.7227711607866</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>373.4325389443665</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>435.7781592731248</v>
       </c>
       <c r="N39" t="n">
-        <v>447.3119104507017</v>
+        <v>26.02842127951652</v>
       </c>
       <c r="O39" t="n">
-        <v>409.2030085873154</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>328.4214903658182</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>219.5410688503554</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34001,7 +34001,7 @@
         <v>31.94600146307223</v>
       </c>
       <c r="T39" t="n">
-        <v>6.932320034135393</v>
+        <v>6.932320034135392</v>
       </c>
       <c r="U39" t="n">
         <v>0.1131499461501969</v>
@@ -34044,10 +34044,10 @@
         <v>1.441888931269175</v>
       </c>
       <c r="H40" t="n">
-        <v>12.81970340710232</v>
+        <v>12.81970340710231</v>
       </c>
       <c r="I40" t="n">
-        <v>43.36153258762212</v>
+        <v>43.36153258762211</v>
       </c>
       <c r="J40" t="n">
         <v>101.9415474407307</v>
@@ -34056,16 +34056,16 @@
         <v>167.5212776510914</v>
       </c>
       <c r="L40" t="n">
-        <v>214.3695598361464</v>
+        <v>214.3695598361463</v>
       </c>
       <c r="M40" t="n">
         <v>226.0226440170399</v>
       </c>
       <c r="N40" t="n">
-        <v>220.6483307277641</v>
+        <v>220.648330727764</v>
       </c>
       <c r="O40" t="n">
-        <v>203.8044463943014</v>
+        <v>203.8044463943013</v>
       </c>
       <c r="P40" t="n">
         <v>174.38991219641</v>
@@ -34080,10 +34080,10 @@
         <v>25.12819164766371</v>
       </c>
       <c r="T40" t="n">
-        <v>6.160798160877384</v>
+        <v>6.160798160877383</v>
       </c>
       <c r="U40" t="n">
-        <v>0.07864848716013693</v>
+        <v>0.07864848716013692</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34132,37 +34132,37 @@
         <v>272.8219191045679</v>
       </c>
       <c r="K41" t="n">
-        <v>408.8893349510029</v>
+        <v>408.8893349510031</v>
       </c>
       <c r="L41" t="n">
-        <v>507.263376474989</v>
+        <v>507.2633764749889</v>
       </c>
       <c r="M41" t="n">
-        <v>564.428245517253</v>
+        <v>564.4282455172529</v>
       </c>
       <c r="N41" t="n">
-        <v>573.5612846212853</v>
+        <v>573.5612846212852</v>
       </c>
       <c r="O41" t="n">
-        <v>541.5976567846922</v>
+        <v>541.597656784692</v>
       </c>
       <c r="P41" t="n">
-        <v>462.241069761097</v>
+        <v>462.241069761095</v>
       </c>
       <c r="Q41" t="n">
-        <v>347.1237928888897</v>
+        <v>347.1237928888896</v>
       </c>
       <c r="R41" t="n">
         <v>201.9193198833834</v>
       </c>
       <c r="S41" t="n">
-        <v>73.24914336405946</v>
+        <v>73.24914336405945</v>
       </c>
       <c r="T41" t="n">
         <v>14.07122874717148</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2571555225068459</v>
+        <v>0.2571555225068458</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.719879181482993</v>
+        <v>1.719879181482992</v>
       </c>
       <c r="H42" t="n">
         <v>16.6104120948489</v>
       </c>
       <c r="I42" t="n">
-        <v>59.21513848526971</v>
+        <v>59.2151384852697</v>
       </c>
       <c r="J42" t="n">
         <v>162.4908660014261</v>
@@ -34217,10 +34217,10 @@
         <v>373.4325389443665</v>
       </c>
       <c r="M42" t="n">
-        <v>435.7781592731249</v>
+        <v>435.7781592731248</v>
       </c>
       <c r="N42" t="n">
-        <v>277.2944961118012</v>
+        <v>277.2944961118014</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34232,13 +34232,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>106.7833758468125</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>31.94600146307223</v>
       </c>
       <c r="T42" t="n">
-        <v>6.932320034135393</v>
+        <v>6.932320034135392</v>
       </c>
       <c r="U42" t="n">
         <v>0.1131499461501969</v>
@@ -34281,10 +34281,10 @@
         <v>1.441888931269175</v>
       </c>
       <c r="H43" t="n">
-        <v>12.81970340710232</v>
+        <v>12.81970340710231</v>
       </c>
       <c r="I43" t="n">
-        <v>43.36153258762212</v>
+        <v>43.36153258762211</v>
       </c>
       <c r="J43" t="n">
         <v>101.9415474407307</v>
@@ -34293,16 +34293,16 @@
         <v>167.5212776510914</v>
       </c>
       <c r="L43" t="n">
-        <v>214.3695598361464</v>
+        <v>214.3695598361463</v>
       </c>
       <c r="M43" t="n">
         <v>226.0226440170399</v>
       </c>
       <c r="N43" t="n">
-        <v>220.6483307277641</v>
+        <v>220.648330727764</v>
       </c>
       <c r="O43" t="n">
-        <v>203.8044463943014</v>
+        <v>203.8044463943013</v>
       </c>
       <c r="P43" t="n">
         <v>174.38991219641</v>
@@ -34317,10 +34317,10 @@
         <v>25.12819164766371</v>
       </c>
       <c r="T43" t="n">
-        <v>6.160798160877384</v>
+        <v>6.160798160877383</v>
       </c>
       <c r="U43" t="n">
-        <v>0.07864848716013693</v>
+        <v>0.07864848716013692</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34369,37 +34369,37 @@
         <v>272.8219191045679</v>
       </c>
       <c r="K44" t="n">
-        <v>408.8893349510029</v>
+        <v>408.8893349510028</v>
       </c>
       <c r="L44" t="n">
-        <v>507.263376474989</v>
+        <v>507.2633764749889</v>
       </c>
       <c r="M44" t="n">
-        <v>564.428245517253</v>
+        <v>564.4282455172529</v>
       </c>
       <c r="N44" t="n">
-        <v>573.5612846212853</v>
+        <v>573.5612846212852</v>
       </c>
       <c r="O44" t="n">
-        <v>541.5976567846922</v>
+        <v>541.597656784692</v>
       </c>
       <c r="P44" t="n">
         <v>462.241069761095</v>
       </c>
       <c r="Q44" t="n">
-        <v>347.1237928888897</v>
+        <v>347.1237928888896</v>
       </c>
       <c r="R44" t="n">
         <v>201.9193198833834</v>
       </c>
       <c r="S44" t="n">
-        <v>73.24914336405946</v>
+        <v>73.24914336405945</v>
       </c>
       <c r="T44" t="n">
         <v>14.07122874717148</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2571555225068459</v>
+        <v>0.2571555225068458</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,37 +34436,37 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.719879181482993</v>
+        <v>1.719879181482992</v>
       </c>
       <c r="H45" t="n">
         <v>16.6104120948489</v>
       </c>
       <c r="I45" t="n">
-        <v>59.21513848526971</v>
+        <v>59.2151384852697</v>
       </c>
       <c r="J45" t="n">
         <v>162.4908660014261</v>
       </c>
       <c r="K45" t="n">
-        <v>9.757532879735294</v>
+        <v>277.7227711607866</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>373.4325389443665</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>435.7781592731248</v>
       </c>
       <c r="N45" t="n">
-        <v>447.3119104507017</v>
+        <v>277.2944961118014</v>
       </c>
       <c r="O45" t="n">
-        <v>409.2030085873154</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>328.4214903658182</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>219.5410688503554</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34475,7 +34475,7 @@
         <v>31.94600146307223</v>
       </c>
       <c r="T45" t="n">
-        <v>6.932320034135393</v>
+        <v>6.932320034135392</v>
       </c>
       <c r="U45" t="n">
         <v>0.1131499461501969</v>
@@ -34518,10 +34518,10 @@
         <v>1.441888931269175</v>
       </c>
       <c r="H46" t="n">
-        <v>12.81970340710232</v>
+        <v>12.81970340710231</v>
       </c>
       <c r="I46" t="n">
-        <v>43.36153258762212</v>
+        <v>43.36153258762211</v>
       </c>
       <c r="J46" t="n">
         <v>101.9415474407307</v>
@@ -34530,16 +34530,16 @@
         <v>167.5212776510914</v>
       </c>
       <c r="L46" t="n">
-        <v>214.3695598361464</v>
+        <v>214.3695598361463</v>
       </c>
       <c r="M46" t="n">
         <v>226.0226440170399</v>
       </c>
       <c r="N46" t="n">
-        <v>220.6483307277641</v>
+        <v>220.648330727764</v>
       </c>
       <c r="O46" t="n">
-        <v>203.8044463943014</v>
+        <v>203.8044463943013</v>
       </c>
       <c r="P46" t="n">
         <v>174.38991219641</v>
@@ -34554,10 +34554,10 @@
         <v>25.12819164766371</v>
       </c>
       <c r="T46" t="n">
-        <v>6.160798160877384</v>
+        <v>6.160798160877383</v>
       </c>
       <c r="U46" t="n">
-        <v>0.07864848716013693</v>
+        <v>0.07864848716013692</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>165.5964216419357</v>
+      </c>
+      <c r="N3" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="N3" t="n">
-        <v>119.067773505462</v>
-      </c>
       <c r="O3" t="n">
-        <v>263.0434990833253</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>193.9407825031299</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903813</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>31.17050357301311</v>
+        <v>31.17050357301321</v>
       </c>
       <c r="K5" t="n">
-        <v>168.6809534714848</v>
+        <v>168.6809534714849</v>
       </c>
       <c r="L5" t="n">
-        <v>262.0683128566679</v>
+        <v>262.0683128566681</v>
       </c>
       <c r="M5" t="n">
-        <v>308.3757815675282</v>
+        <v>308.3757815675284</v>
       </c>
       <c r="N5" t="n">
-        <v>298.5858286094233</v>
+        <v>298.5858286094235</v>
       </c>
       <c r="O5" t="n">
-        <v>236.3020524417977</v>
+        <v>236.3020524417979</v>
       </c>
       <c r="P5" t="n">
-        <v>163.6234024880401</v>
+        <v>163.6234024880403</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.87258346723998</v>
+        <v>44.8725834672401</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>24.93526194128169</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>170.5181758178494</v>
       </c>
       <c r="L6" t="n">
-        <v>171.8448246839798</v>
+        <v>291.3073733509629</v>
       </c>
       <c r="M6" t="n">
-        <v>382.2812817067457</v>
+        <v>12.44160733322449</v>
       </c>
       <c r="N6" t="n">
-        <v>382.2812817067457</v>
+        <v>382.2812817067461</v>
       </c>
       <c r="O6" t="n">
-        <v>315.9410432276343</v>
+        <v>315.9410432276345</v>
       </c>
       <c r="P6" t="n">
-        <v>236.3957252088081</v>
+        <v>236.3957252088082</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>104.7942118299711</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>4.207423324463647</v>
+        <v>4.207423324463711</v>
       </c>
       <c r="L7" t="n">
-        <v>61.47136096992231</v>
+        <v>61.47136096992239</v>
       </c>
       <c r="M7" t="n">
-        <v>75.30699495381435</v>
+        <v>75.30699495381444</v>
       </c>
       <c r="N7" t="n">
-        <v>79.00587447044792</v>
+        <v>79.00587447044801</v>
       </c>
       <c r="O7" t="n">
-        <v>56.79663626752853</v>
+        <v>56.79663626752861</v>
       </c>
       <c r="P7" t="n">
-        <v>24.84106937132618</v>
+        <v>24.84106937132624</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>404.3465691990062</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>605.7185044679514</v>
+        <v>268.6675374918141</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>759.3491891011064</v>
       </c>
       <c r="N12" t="n">
-        <v>795.3125727109218</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>238.1661978459492</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>512.909851591425</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>289.6365825001829</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>18.97980045463138</v>
+        <v>18.97980045463137</v>
       </c>
       <c r="K13" t="n">
         <v>155.649218955782</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>605.7185044679514</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>687.6815707920472</v>
+        <v>759.3491891011064</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>795.3125727109218</v>
       </c>
       <c r="O15" t="n">
-        <v>660.4690834196003</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>321.5205819593086</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>18.97980045463133</v>
+        <v>18.97980045463132</v>
       </c>
       <c r="K16" t="n">
         <v>155.649218955782</v>
@@ -35823,7 +35823,7 @@
         <v>182.0659045918769</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.97392575088244</v>
+        <v>44.97392575088243</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>337.1330936743448</v>
       </c>
       <c r="R17" t="n">
-        <v>52.05020194223371</v>
+        <v>52.05020194223357</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>605.7185044679514</v>
       </c>
       <c r="M18" t="n">
         <v>759.3491891011064</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>558.9122545002568</v>
       </c>
       <c r="O18" t="n">
-        <v>660.4690834196003</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>359.6294838226948</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.97980045463138</v>
+        <v>18.97980045463136</v>
       </c>
       <c r="K19" t="n">
         <v>155.649218955782</v>
       </c>
       <c r="L19" t="n">
-        <v>252.357018227036</v>
+        <v>252.3570182270359</v>
       </c>
       <c r="M19" t="n">
         <v>276.0039541094539</v>
@@ -36057,10 +36057,10 @@
         <v>238.7870074389145</v>
       </c>
       <c r="P19" t="n">
-        <v>182.065904591877</v>
+        <v>182.0659045918769</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.9739257508825</v>
+        <v>44.97392575088247</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>260.8726297499554</v>
+        <v>260.8726297499553</v>
       </c>
       <c r="K20" t="n">
-        <v>512.9448964771871</v>
+        <v>512.9448964771868</v>
       </c>
       <c r="L20" t="n">
-        <v>689.1581760554521</v>
+        <v>689.158176055452</v>
       </c>
       <c r="M20" t="n">
-        <v>783.5955457828127</v>
+        <v>783.5955457828126</v>
       </c>
       <c r="N20" t="n">
-        <v>781.4951454366784</v>
+        <v>781.4951454366783</v>
       </c>
       <c r="O20" t="n">
-        <v>692.2996266257506</v>
+        <v>692.2996266257504</v>
       </c>
       <c r="P20" t="n">
-        <v>552.8067821773082</v>
+        <v>552.8067821773079</v>
       </c>
       <c r="Q20" t="n">
         <v>337.1330936743448</v>
       </c>
       <c r="R20" t="n">
-        <v>52.05020194223371</v>
+        <v>52.05020194223366</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>396.0971527505069</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>605.7185044679513</v>
       </c>
       <c r="M21" t="n">
-        <v>759.3491891011064</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>603.9233030788051</v>
+        <v>795.3125727109217</v>
       </c>
       <c r="O21" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>512.909851591425</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>18.97980045463138</v>
+        <v>18.97980045463133</v>
       </c>
       <c r="K22" t="n">
         <v>155.649218955782</v>
       </c>
       <c r="L22" t="n">
-        <v>252.357018227036</v>
+        <v>252.3570182270359</v>
       </c>
       <c r="M22" t="n">
-        <v>276.0039541094539</v>
+        <v>276.0039541094538</v>
       </c>
       <c r="N22" t="n">
-        <v>275.1779362375661</v>
+        <v>275.177936237566</v>
       </c>
       <c r="O22" t="n">
-        <v>238.7870074389145</v>
+        <v>238.7870074389144</v>
       </c>
       <c r="P22" t="n">
-        <v>182.065904591877</v>
+        <v>182.0659045918769</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.9739257508825</v>
+        <v>44.97392575088244</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>161.7442746751682</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>404.3465691990062</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>605.7185044679514</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>361.095875797874</v>
       </c>
       <c r="N24" t="n">
-        <v>527.3473344298708</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>660.4690834196003</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>18.97980045463141</v>
+        <v>18.97980045463135</v>
       </c>
       <c r="K25" t="n">
-        <v>155.6492189557821</v>
+        <v>155.649218955782</v>
       </c>
       <c r="L25" t="n">
-        <v>252.357018227036</v>
+        <v>252.3570182270359</v>
       </c>
       <c r="M25" t="n">
-        <v>276.003954109454</v>
+        <v>276.0039541094539</v>
       </c>
       <c r="N25" t="n">
         <v>275.1779362375661</v>
@@ -36531,10 +36531,10 @@
         <v>238.7870074389145</v>
       </c>
       <c r="P25" t="n">
-        <v>182.065904591877</v>
+        <v>182.0659045918769</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.97392575088253</v>
+        <v>44.97392575088247</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>161.7442746751682</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>404.3465691990062</v>
@@ -36683,13 +36683,13 @@
         <v>759.3491891011064</v>
       </c>
       <c r="N27" t="n">
-        <v>625.2951583720217</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>602.5510718215826</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>18.97980045463142</v>
+        <v>18.97980045463138</v>
       </c>
       <c r="K28" t="n">
-        <v>155.6492189557821</v>
+        <v>155.649218955782</v>
       </c>
       <c r="L28" t="n">
         <v>252.357018227036</v>
       </c>
       <c r="M28" t="n">
-        <v>276.003954109454</v>
+        <v>276.0039541094539</v>
       </c>
       <c r="N28" t="n">
         <v>275.1779362375661</v>
@@ -36771,7 +36771,7 @@
         <v>182.065904591877</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.97392575088253</v>
+        <v>44.97392575088249</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>605.7185044679514</v>
       </c>
       <c r="M30" t="n">
-        <v>589.331774762206</v>
+        <v>759.3491891011064</v>
       </c>
       <c r="N30" t="n">
-        <v>795.3125727109218</v>
+        <v>625.2951583720217</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>18.97980045463144</v>
+        <v>18.97980045463137</v>
       </c>
       <c r="K31" t="n">
-        <v>155.6492189557821</v>
+        <v>155.649218955782</v>
       </c>
       <c r="L31" t="n">
         <v>252.357018227036</v>
       </c>
       <c r="M31" t="n">
-        <v>276.003954109454</v>
+        <v>276.0039541094539</v>
       </c>
       <c r="N31" t="n">
-        <v>275.1779362375662</v>
+        <v>275.1779362375661</v>
       </c>
       <c r="O31" t="n">
         <v>238.7870074389145</v>
@@ -37008,7 +37008,7 @@
         <v>182.065904591877</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.97392575088256</v>
+        <v>44.97392575088249</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>161.7442746751682</v>
       </c>
       <c r="K33" t="n">
-        <v>404.3465691990062</v>
+        <v>356.4956189721875</v>
       </c>
       <c r="L33" t="n">
-        <v>435.7010901290512</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>759.3491891011064</v>
@@ -37160,7 +37160,7 @@
         <v>795.3125727109218</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.22551106590673</v>
+        <v>79.2255110659067</v>
       </c>
       <c r="K34" t="n">
-        <v>215.8949295670574</v>
+        <v>215.8949295670573</v>
       </c>
       <c r="L34" t="n">
-        <v>312.6027288383113</v>
+        <v>312.6027288383112</v>
       </c>
       <c r="M34" t="n">
         <v>336.2496647207292</v>
       </c>
       <c r="N34" t="n">
-        <v>335.4236468488415</v>
+        <v>335.4236468488414</v>
       </c>
       <c r="O34" t="n">
         <v>299.0327180501898</v>
@@ -37309,25 +37309,25 @@
         <v>512.9448964771871</v>
       </c>
       <c r="L35" t="n">
-        <v>689.1581760554523</v>
+        <v>689.1581760554521</v>
       </c>
       <c r="M35" t="n">
-        <v>783.5955457828128</v>
+        <v>783.5955457828127</v>
       </c>
       <c r="N35" t="n">
-        <v>781.4951454366794</v>
+        <v>781.4951454366784</v>
       </c>
       <c r="O35" t="n">
-        <v>692.2996266257508</v>
+        <v>692.2996266257506</v>
       </c>
       <c r="P35" t="n">
         <v>552.8067821773082</v>
       </c>
       <c r="Q35" t="n">
-        <v>337.1330936743449</v>
+        <v>337.1330936743448</v>
       </c>
       <c r="R35" t="n">
-        <v>52.05020194223374</v>
+        <v>52.05020194223371</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.02606764096799</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>404.3465691990062</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>759.3491891011065</v>
+        <v>587.7621880933063</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>795.3125727109218</v>
       </c>
       <c r="O36" t="n">
-        <v>660.4690834196005</v>
+        <v>660.4690834196003</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>512.909851591425</v>
       </c>
       <c r="Q36" t="n">
-        <v>289.636582500183</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>6.625541694169385</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.22551106590674</v>
+        <v>79.2255110659067</v>
       </c>
       <c r="K37" t="n">
-        <v>215.8949295670574</v>
+        <v>215.8949295670573</v>
       </c>
       <c r="L37" t="n">
-        <v>312.6027288383113</v>
+        <v>312.6027288383112</v>
       </c>
       <c r="M37" t="n">
         <v>336.2496647207292</v>
       </c>
       <c r="N37" t="n">
-        <v>335.4236468488415</v>
+        <v>335.4236468488414</v>
       </c>
       <c r="O37" t="n">
         <v>299.0327180501898</v>
@@ -37546,25 +37546,25 @@
         <v>512.9448964771871</v>
       </c>
       <c r="L38" t="n">
-        <v>689.1581760554523</v>
+        <v>689.1581760554521</v>
       </c>
       <c r="M38" t="n">
-        <v>783.5955457828128</v>
+        <v>783.5955457828127</v>
       </c>
       <c r="N38" t="n">
-        <v>781.4951454366785</v>
+        <v>781.4951454366784</v>
       </c>
       <c r="O38" t="n">
-        <v>692.2996266257508</v>
+        <v>692.2996266257506</v>
       </c>
       <c r="P38" t="n">
         <v>552.8067821773082</v>
       </c>
       <c r="Q38" t="n">
-        <v>337.1330936743449</v>
+        <v>337.1330936743448</v>
       </c>
       <c r="R38" t="n">
-        <v>52.05020194223374</v>
+        <v>52.05020194223371</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>161.7442746751682</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>404.3465691990062</v>
       </c>
       <c r="L39" t="n">
-        <v>9.757532879735328</v>
+        <v>605.7185044679514</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>759.3491891011064</v>
       </c>
       <c r="N39" t="n">
-        <v>795.3125727109219</v>
+        <v>374.0290835397367</v>
       </c>
       <c r="O39" t="n">
-        <v>660.4690834196005</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>512.9098515914251</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>289.636582500183</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.22551106590672</v>
+        <v>79.22551106590669</v>
       </c>
       <c r="K40" t="n">
-        <v>215.8949295670574</v>
+        <v>215.8949295670573</v>
       </c>
       <c r="L40" t="n">
-        <v>312.6027288383113</v>
+        <v>312.6027288383112</v>
       </c>
       <c r="M40" t="n">
         <v>336.2496647207292</v>
       </c>
       <c r="N40" t="n">
-        <v>335.4236468488415</v>
+        <v>335.4236468488414</v>
       </c>
       <c r="O40" t="n">
         <v>299.0327180501898</v>
@@ -37780,28 +37780,28 @@
         <v>260.8726297499554</v>
       </c>
       <c r="K41" t="n">
-        <v>512.9448964771871</v>
+        <v>512.9448964771873</v>
       </c>
       <c r="L41" t="n">
-        <v>689.1581760554523</v>
+        <v>689.1581760554521</v>
       </c>
       <c r="M41" t="n">
-        <v>783.5955457828128</v>
+        <v>783.5955457828127</v>
       </c>
       <c r="N41" t="n">
-        <v>781.4951454366785</v>
+        <v>781.4951454366784</v>
       </c>
       <c r="O41" t="n">
-        <v>692.2996266257508</v>
+        <v>692.2996266257506</v>
       </c>
       <c r="P41" t="n">
-        <v>552.8067821773101</v>
+        <v>552.8067821773082</v>
       </c>
       <c r="Q41" t="n">
-        <v>337.1330936743449</v>
+        <v>337.1330936743448</v>
       </c>
       <c r="R41" t="n">
-        <v>52.05020194223374</v>
+        <v>52.05020194223371</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>605.7185044679514</v>
       </c>
       <c r="M42" t="n">
-        <v>759.3491891011065</v>
+        <v>759.3491891011064</v>
       </c>
       <c r="N42" t="n">
-        <v>625.2951583720214</v>
+        <v>625.2951583720217</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>336.2496647207292</v>
       </c>
       <c r="N43" t="n">
-        <v>335.4236468488415</v>
+        <v>335.4236468488414</v>
       </c>
       <c r="O43" t="n">
         <v>299.0327180501898</v>
@@ -38020,25 +38020,25 @@
         <v>512.9448964771871</v>
       </c>
       <c r="L44" t="n">
-        <v>689.1581760554523</v>
+        <v>689.1581760554521</v>
       </c>
       <c r="M44" t="n">
-        <v>783.5955457828128</v>
+        <v>783.5955457828127</v>
       </c>
       <c r="N44" t="n">
-        <v>781.4951454366785</v>
+        <v>781.4951454366784</v>
       </c>
       <c r="O44" t="n">
-        <v>692.2996266257508</v>
+        <v>692.2996266257506</v>
       </c>
       <c r="P44" t="n">
         <v>552.8067821773082</v>
       </c>
       <c r="Q44" t="n">
-        <v>337.1330936743449</v>
+        <v>337.1330936743448</v>
       </c>
       <c r="R44" t="n">
-        <v>52.05020194223374</v>
+        <v>52.05020194223371</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>161.7442746751682</v>
       </c>
       <c r="K45" t="n">
-        <v>136.3813309179549</v>
+        <v>404.3465691990062</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>605.7185044679514</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>759.3491891011064</v>
       </c>
       <c r="N45" t="n">
-        <v>795.3125727109219</v>
+        <v>625.2951583720217</v>
       </c>
       <c r="O45" t="n">
-        <v>660.4690834196005</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>512.9098515914251</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>289.636582500183</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.22551106590674</v>
+        <v>79.22551106590672</v>
       </c>
       <c r="K46" t="n">
         <v>215.8949295670574</v>
@@ -38184,7 +38184,7 @@
         <v>336.2496647207292</v>
       </c>
       <c r="N46" t="n">
-        <v>335.4236468488415</v>
+        <v>335.4236468488414</v>
       </c>
       <c r="O46" t="n">
         <v>299.0327180501898</v>
